--- a/BackTest/2019-10-24 BackTest LBA.xlsx
+++ b/BackTest/2019-10-24 BackTest LBA.xlsx
@@ -941,7 +941,9 @@
       <c r="J12" t="n">
         <v>0.5999999999999996</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>15.38</v>
       </c>
@@ -992,7 +994,9 @@
       <c r="J13" t="n">
         <v>0.5999999999999996</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
       <c r="L13" t="n">
         <v>15.33</v>
       </c>
@@ -1043,7 +1047,9 @@
       <c r="J14" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-100</v>
+      </c>
       <c r="L14" t="n">
         <v>15.28</v>
       </c>
@@ -1094,7 +1100,9 @@
       <c r="J15" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-100</v>
+      </c>
       <c r="L15" t="n">
         <v>15.23</v>
       </c>
@@ -1145,7 +1153,9 @@
       <c r="J16" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-100</v>
+      </c>
       <c r="L16" t="n">
         <v>15.18</v>
       </c>
@@ -1196,7 +1206,9 @@
       <c r="J17" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-100</v>
+      </c>
       <c r="L17" t="n">
         <v>15.13</v>
       </c>
@@ -1247,7 +1259,9 @@
       <c r="J18" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-100</v>
+      </c>
       <c r="L18" t="n">
         <v>15.07</v>
       </c>
@@ -1298,7 +1312,9 @@
       <c r="J19" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-100</v>
+      </c>
       <c r="L19" t="n">
         <v>15.03</v>
       </c>
@@ -1349,7 +1365,9 @@
       <c r="J20" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-100</v>
+      </c>
       <c r="L20" t="n">
         <v>15</v>
       </c>
@@ -1400,7 +1418,9 @@
       <c r="J21" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>14.97</v>
       </c>
@@ -1453,7 +1473,9 @@
       <c r="J22" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-50</v>
+      </c>
       <c r="L22" t="n">
         <v>14.95</v>
       </c>
@@ -1507,7 +1529,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K23" t="n">
-        <v>-77.77777777777783</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>14.93</v>
@@ -1562,7 +1584,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K24" t="n">
-        <v>-75.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>14.92000000000001</v>
@@ -1617,7 +1639,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K25" t="n">
-        <v>-75.00000000000006</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>14.91000000000001</v>
@@ -1672,7 +1694,7 @@
         <v>1.099999999999998</v>
       </c>
       <c r="K26" t="n">
-        <v>-77.77777777777783</v>
+        <v>-50</v>
       </c>
       <c r="L26" t="n">
         <v>14.89000000000001</v>
@@ -1727,7 +1749,7 @@
         <v>1.199999999999998</v>
       </c>
       <c r="K27" t="n">
-        <v>-60.00000000000008</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>14.88000000000001</v>
@@ -1782,7 +1804,7 @@
         <v>1.199999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>-60.00000000000008</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>14.88000000000001</v>
@@ -1837,7 +1859,7 @@
         <v>1.199999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>-50.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>14.88000000000001</v>
@@ -1892,7 +1914,7 @@
         <v>1.299999999999997</v>
       </c>
       <c r="K30" t="n">
-        <v>-25</v>
+        <v>50</v>
       </c>
       <c r="L30" t="n">
         <v>14.89000000000001</v>
@@ -1941,7 +1963,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K31" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>14.90000000000001</v>
@@ -1992,7 +2014,7 @@
         <v>1.399999999999997</v>
       </c>
       <c r="K32" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>14.90000000000001</v>
@@ -2043,7 +2065,7 @@
         <v>1.499999999999996</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L33" t="n">
         <v>14.91000000000001</v>
@@ -2094,7 +2116,7 @@
         <v>1.499999999999996</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L34" t="n">
         <v>14.92000000000001</v>
@@ -2145,7 +2167,7 @@
         <v>1.499999999999996</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L35" t="n">
         <v>14.93</v>
@@ -2196,7 +2218,7 @@
         <v>1.499999999999996</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>14.95</v>
@@ -2247,7 +2269,7 @@
         <v>1.599999999999996</v>
       </c>
       <c r="K37" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>14.95</v>
@@ -2349,7 +2371,7 @@
         <v>1.699999999999996</v>
       </c>
       <c r="K39" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>14.96</v>
@@ -2451,7 +2473,7 @@
         <v>1.799999999999995</v>
       </c>
       <c r="K41" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>14.95</v>
@@ -2502,7 +2524,7 @@
         <v>1.799999999999995</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>14.95</v>
@@ -2553,7 +2575,7 @@
         <v>1.799999999999995</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>14.94</v>
@@ -2604,7 +2626,7 @@
         <v>1.899999999999995</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L44" t="n">
         <v>14.92000000000001</v>
@@ -2655,7 +2677,7 @@
         <v>1.999999999999996</v>
       </c>
       <c r="K45" t="n">
-        <v>-20.00000000000014</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L45" t="n">
         <v>14.89</v>
@@ -2706,7 +2728,7 @@
         <v>2.099999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L46" t="n">
         <v>14.87</v>
@@ -2757,7 +2779,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>-20.00000000000007</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>14.85</v>
@@ -2808,7 +2830,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>-20.00000000000007</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L48" t="n">
         <v>14.83</v>
@@ -2910,7 +2932,7 @@
         <v>2.4</v>
       </c>
       <c r="K50" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>14.82</v>
@@ -2961,7 +2983,7 @@
         <v>2.5</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.090909090909033</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L51" t="n">
         <v>14.81</v>
@@ -3012,7 +3034,7 @@
         <v>2.5</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.090909090909033</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L52" t="n">
         <v>14.8</v>
@@ -3063,7 +3085,7 @@
         <v>2.6</v>
       </c>
       <c r="K53" t="n">
-        <v>-9.090909090909033</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L53" t="n">
         <v>14.8</v>
@@ -3114,7 +3136,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>7.69230769230765</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L54" t="n">
         <v>14.83</v>
@@ -3165,7 +3187,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>7.69230769230765</v>
+        <v>42.85714285714264</v>
       </c>
       <c r="L55" t="n">
         <v>14.87</v>
@@ -3216,7 +3238,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>7.69230769230765</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L56" t="n">
         <v>14.9</v>
@@ -3267,7 +3289,7 @@
         <v>2.799999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>16.66666666666657</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L57" t="n">
         <v>14.94</v>
@@ -3318,7 +3340,7 @@
         <v>3.1</v>
       </c>
       <c r="K58" t="n">
-        <v>33.33333333333325</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L58" t="n">
         <v>15.01</v>
@@ -3369,7 +3391,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>50.00000000000011</v>
       </c>
       <c r="L59" t="n">
         <v>15.05</v>
@@ -3420,7 +3442,7 @@
         <v>3.299999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>33.33333333333325</v>
+        <v>75.00000000000006</v>
       </c>
       <c r="L60" t="n">
         <v>15.1</v>
@@ -3471,7 +3493,7 @@
         <v>3.599999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>44.44444444444432</v>
+        <v>81.81818181818184</v>
       </c>
       <c r="L61" t="n">
         <v>15.19</v>
@@ -3522,7 +3544,7 @@
         <v>3.599999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>44.44444444444432</v>
+        <v>80.00000000000004</v>
       </c>
       <c r="L62" t="n">
         <v>15.28</v>
@@ -3573,7 +3595,7 @@
         <v>3.699999999999998</v>
       </c>
       <c r="K63" t="n">
-        <v>36.84210526315781</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L63" t="n">
         <v>15.35</v>
@@ -3624,7 +3646,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>49.99999999999991</v>
+        <v>63.63636363636375</v>
       </c>
       <c r="L64" t="n">
         <v>15.42</v>
@@ -3675,7 +3697,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>60</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L65" t="n">
         <v>15.5</v>
@@ -3726,7 +3748,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="K66" t="n">
-        <v>36.3636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L66" t="n">
         <v>15.55</v>
@@ -3777,7 +3799,7 @@
         <v>4.6</v>
       </c>
       <c r="K67" t="n">
-        <v>50.00000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>15.63</v>
@@ -3828,7 +3850,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="K68" t="n">
-        <v>52.00000000000002</v>
+        <v>46.66666666666661</v>
       </c>
       <c r="L68" t="n">
         <v>15.69</v>
@@ -3879,7 +3901,7 @@
         <v>4.799999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>41.66666666666669</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>15.75</v>
@@ -3930,7 +3952,7 @@
         <v>5.199999999999999</v>
       </c>
       <c r="K70" t="n">
-        <v>50.00000000000004</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L70" t="n">
         <v>15.84</v>
@@ -3981,7 +4003,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K71" t="n">
-        <v>49.99999999999994</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L71" t="n">
         <v>15.89</v>
@@ -4032,7 +4054,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K72" t="n">
-        <v>49.99999999999994</v>
+        <v>37.49999999999991</v>
       </c>
       <c r="L72" t="n">
         <v>15.94</v>
@@ -4083,7 +4105,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K73" t="n">
-        <v>48.14814814814809</v>
+        <v>28.57142857142843</v>
       </c>
       <c r="L73" t="n">
         <v>16</v>
@@ -4134,7 +4156,7 @@
         <v>5.300000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>43.99999999999996</v>
+        <v>23.07692307692295</v>
       </c>
       <c r="L74" t="n">
         <v>16.04</v>
@@ -4236,7 +4258,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>35.71428571428575</v>
+        <v>20.00000000000007</v>
       </c>
       <c r="L76" t="n">
         <v>16.1</v>
@@ -4287,7 +4309,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K77" t="n">
-        <v>41.93548387096771</v>
+        <v>33.33333333333324</v>
       </c>
       <c r="L77" t="n">
         <v>16.15</v>
@@ -4338,7 +4360,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K78" t="n">
-        <v>26.66666666666665</v>
+        <v>23.07692307692301</v>
       </c>
       <c r="L78" t="n">
         <v>16.16999999999999</v>
@@ -4389,7 +4411,7 @@
         <v>6.099999999999998</v>
       </c>
       <c r="K79" t="n">
-        <v>31.03448275862066</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L79" t="n">
         <v>16.2</v>
@@ -4440,7 +4462,7 @@
         <v>6.399999999999997</v>
       </c>
       <c r="K80" t="n">
-        <v>16.12903225806453</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L80" t="n">
         <v>16.15999999999999</v>
@@ -4491,7 +4513,7 @@
         <v>6.599999999999998</v>
       </c>
       <c r="K81" t="n">
-        <v>13.3333333333334</v>
+        <v>-7.692307692307546</v>
       </c>
       <c r="L81" t="n">
         <v>16.15</v>
@@ -4542,7 +4564,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K82" t="n">
-        <v>16.12903225806453</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>16.15</v>
@@ -4593,7 +4615,7 @@
         <v>6.699999999999996</v>
       </c>
       <c r="K83" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>16.15</v>
@@ -4644,7 +4666,7 @@
         <v>6.799999999999994</v>
       </c>
       <c r="K84" t="n">
-        <v>10.34482758620694</v>
+        <v>7.69230769230784</v>
       </c>
       <c r="L84" t="n">
         <v>16.13999999999999</v>
@@ -4695,7 +4717,7 @@
         <v>6.999999999999995</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L85" t="n">
         <v>16.13</v>
@@ -4746,7 +4768,7 @@
         <v>7.199999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>17.24137931034491</v>
+        <v>-23.07692307692291</v>
       </c>
       <c r="L86" t="n">
         <v>16.13</v>
@@ -4797,7 +4819,7 @@
         <v>7.399999999999995</v>
       </c>
       <c r="K87" t="n">
-        <v>14.28571428571432</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L87" t="n">
         <v>16.12</v>
@@ -4848,7 +4870,7 @@
         <v>7.399999999999995</v>
       </c>
       <c r="K88" t="n">
-        <v>11.11111111111116</v>
+        <v>7.692307692307819</v>
       </c>
       <c r="L88" t="n">
         <v>16.13</v>
@@ -4899,7 +4921,7 @@
         <v>7.499999999999993</v>
       </c>
       <c r="K89" t="n">
-        <v>18.51851851851849</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L89" t="n">
         <v>16.15</v>
@@ -4950,7 +4972,7 @@
         <v>7.599999999999994</v>
       </c>
       <c r="K90" t="n">
-        <v>8.33333333333332</v>
+        <v>40</v>
       </c>
       <c r="L90" t="n">
         <v>16.21</v>
@@ -5001,7 +5023,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K91" t="n">
-        <v>8.33333333333332</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L91" t="n">
         <v>16.24</v>
@@ -5052,7 +5074,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K92" t="n">
-        <v>8.33333333333332</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L92" t="n">
         <v>16.26</v>
@@ -5103,7 +5125,7 @@
         <v>7.699999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>8.33333333333332</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L93" t="n">
         <v>16.28</v>
@@ -5154,7 +5176,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K94" t="n">
-        <v>12.00000000000005</v>
+        <v>74.99999999999972</v>
       </c>
       <c r="L94" t="n">
         <v>16.32</v>
@@ -5205,7 +5227,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K95" t="n">
-        <v>21.73913043478263</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L95" t="n">
         <v>16.38</v>
@@ -5256,7 +5278,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K96" t="n">
-        <v>18.18181818181815</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L96" t="n">
         <v>16.42000000000001</v>
@@ -5307,7 +5329,7 @@
         <v>7.799999999999997</v>
       </c>
       <c r="K97" t="n">
-        <v>5.263157894736921</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L97" t="n">
         <v>16.44</v>
@@ -5358,7 +5380,7 @@
         <v>7.999999999999996</v>
       </c>
       <c r="K98" t="n">
-        <v>5.263157894736921</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L98" t="n">
         <v>16.44</v>
@@ -5409,7 +5431,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K99" t="n">
-        <v>9.999999999999982</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L99" t="n">
         <v>16.44</v>
@@ -5460,7 +5482,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K100" t="n">
-        <v>33.33333333333333</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L100" t="n">
         <v>16.44</v>
@@ -5511,7 +5533,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K101" t="n">
-        <v>24.99999999999994</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L101" t="n">
         <v>16.45</v>
@@ -5562,7 +5584,7 @@
         <v>8.199999999999996</v>
       </c>
       <c r="K102" t="n">
-        <v>20.00000000000005</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L102" t="n">
         <v>16.46</v>
@@ -5613,7 +5635,7 @@
         <v>8.299999999999997</v>
       </c>
       <c r="K103" t="n">
-        <v>25.00000000000011</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L103" t="n">
         <v>16.48</v>
@@ -5664,7 +5686,7 @@
         <v>8.599999999999994</v>
       </c>
       <c r="K104" t="n">
-        <v>44.44444444444427</v>
+        <v>50</v>
       </c>
       <c r="L104" t="n">
         <v>16.52</v>
@@ -5715,7 +5737,7 @@
         <v>8.899999999999995</v>
       </c>
       <c r="K105" t="n">
-        <v>68.42105263157889</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L105" t="n">
         <v>16.59</v>
@@ -5766,7 +5788,7 @@
         <v>8.899999999999995</v>
       </c>
       <c r="K106" t="n">
-        <v>64.70588235294107</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L106" t="n">
         <v>16.66</v>
@@ -5817,7 +5839,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K107" t="n">
-        <v>41.17647058823527</v>
+        <v>63.63636363636369</v>
       </c>
       <c r="L107" t="n">
         <v>16.71</v>
@@ -5868,7 +5890,7 @@
         <v>9.199999999999996</v>
       </c>
       <c r="K108" t="n">
-        <v>44.44444444444446</v>
+        <v>63.63636363636381</v>
       </c>
       <c r="L108" t="n">
         <v>16.79</v>
@@ -5919,7 +5941,7 @@
         <v>9.499999999999996</v>
       </c>
       <c r="K109" t="n">
-        <v>20.00000000000007</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L109" t="n">
         <v>16.83</v>
@@ -5970,7 +5992,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K110" t="n">
-        <v>23.8095238095238</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>16.88</v>
@@ -6021,7 +6043,7 @@
         <v>9.699999999999996</v>
       </c>
       <c r="K111" t="n">
-        <v>30.00000000000007</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>16.93</v>
@@ -6072,7 +6094,7 @@
         <v>9.799999999999997</v>
       </c>
       <c r="K112" t="n">
-        <v>23.8095238095238</v>
+        <v>19.99999999999981</v>
       </c>
       <c r="L112" t="n">
         <v>16.97</v>
@@ -6123,7 +6145,7 @@
         <v>9.899999999999995</v>
       </c>
       <c r="K113" t="n">
-        <v>18.18181818181829</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L113" t="n">
         <v>16.99</v>
@@ -6174,7 +6196,7 @@
         <v>9.999999999999996</v>
       </c>
       <c r="K114" t="n">
-        <v>9.090909090909062</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L114" t="n">
         <v>16.97</v>
@@ -6225,7 +6247,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>4.347826086956589</v>
+        <v>-49.99999999999985</v>
       </c>
       <c r="L115" t="n">
         <v>16.91</v>
@@ -6276,7 +6298,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>4.347826086956589</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L116" t="n">
         <v>16.85</v>
@@ -6327,7 +6349,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>4.347826086956589</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L117" t="n">
         <v>16.81</v>
@@ -6378,7 +6400,7 @@
         <v>10.19999999999999</v>
       </c>
       <c r="K118" t="n">
-        <v>18.18181818181815</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L118" t="n">
         <v>16.77</v>
@@ -6429,7 +6451,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K119" t="n">
-        <v>21.73913043478263</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L119" t="n">
         <v>16.78</v>
@@ -6480,7 +6502,7 @@
         <v>10.39999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>18.18181818181815</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L120" t="n">
         <v>16.77</v>
@@ -6531,7 +6553,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K121" t="n">
-        <v>13.04347826086963</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L121" t="n">
         <v>16.75</v>
@@ -6582,7 +6604,7 @@
         <v>10.69999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>4.000000000000068</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L122" t="n">
         <v>16.72</v>
@@ -6633,7 +6655,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>-4.000000000000068</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L123" t="n">
         <v>16.69</v>
@@ -6684,7 +6706,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>-13.04347826086946</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>16.68</v>
@@ -6735,7 +6757,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>-29.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>16.68</v>
@@ -6786,7 +6808,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>-23.80952380952387</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L126" t="n">
         <v>16.69</v>
@@ -6837,7 +6859,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K127" t="n">
-        <v>-20</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L127" t="n">
         <v>16.69</v>
@@ -6888,7 +6910,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K128" t="n">
-        <v>-30.00000000000018</v>
+        <v>-50</v>
       </c>
       <c r="L128" t="n">
         <v>16.67</v>
@@ -6939,7 +6961,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>-17.64705882352953</v>
+        <v>-50</v>
       </c>
       <c r="L129" t="n">
         <v>16.63</v>
@@ -6990,7 +7012,7 @@
         <v>11.19999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>-33.33333333333349</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L130" t="n">
         <v>16.59</v>
@@ -7041,7 +7063,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>-37.50000000000022</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L131" t="n">
         <v>16.55</v>
@@ -7092,7 +7114,7 @@
         <v>11.39999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
         <v>16.54</v>
@@ -7143,7 +7165,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-25.00000000000017</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L133" t="n">
         <v>16.53</v>
@@ -7194,7 +7216,7 @@
         <v>11.7</v>
       </c>
       <c r="K134" t="n">
-        <v>-5.882352941176348</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>16.53</v>
@@ -7245,7 +7267,7 @@
         <v>11.7</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L135" t="n">
         <v>16.53</v>
@@ -7296,7 +7318,7 @@
         <v>11.9</v>
       </c>
       <c r="K136" t="n">
-        <v>-11.11111111111124</v>
+        <v>-25</v>
       </c>
       <c r="L136" t="n">
         <v>16.5</v>
@@ -7347,7 +7369,7 @@
         <v>12</v>
       </c>
       <c r="K137" t="n">
-        <v>-5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>16.49</v>
@@ -7398,7 +7420,7 @@
         <v>12</v>
       </c>
       <c r="K138" t="n">
-        <v>-11.11111111111102</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>16.49</v>
@@ -7449,7 +7471,7 @@
         <v>12</v>
       </c>
       <c r="K139" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>16.49</v>
@@ -7500,7 +7522,7 @@
         <v>12.4</v>
       </c>
       <c r="K140" t="n">
-        <v>-39.99999999999972</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L140" t="n">
         <v>16.45</v>
@@ -7551,7 +7573,7 @@
         <v>12.7</v>
       </c>
       <c r="K141" t="n">
-        <v>-18.18181818181823</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L141" t="n">
         <v>16.45</v>
@@ -7602,7 +7624,7 @@
         <v>12.7</v>
       </c>
       <c r="K142" t="n">
-        <v>-10.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>16.44</v>
@@ -7653,7 +7675,7 @@
         <v>12.9</v>
       </c>
       <c r="K143" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L143" t="n">
         <v>16.42</v>
@@ -7704,7 +7726,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L144" t="n">
         <v>16.34</v>
@@ -7755,7 +7777,7 @@
         <v>13.4</v>
       </c>
       <c r="K145" t="n">
-        <v>-36.00000000000003</v>
+        <v>-46.66666666666673</v>
       </c>
       <c r="L145" t="n">
         <v>16.25</v>
@@ -7806,7 +7828,7 @@
         <v>13.4</v>
       </c>
       <c r="K146" t="n">
-        <v>-41.66666666666657</v>
+        <v>-57.14285714285739</v>
       </c>
       <c r="L146" t="n">
         <v>16.18</v>
@@ -7857,7 +7879,7 @@
         <v>13.7</v>
       </c>
       <c r="K147" t="n">
-        <v>-23.07692307692306</v>
+        <v>-29.41176470588243</v>
       </c>
       <c r="L147" t="n">
         <v>16.13</v>
@@ -7908,7 +7930,7 @@
         <v>13.8</v>
       </c>
       <c r="K148" t="n">
-        <v>-23.076923076923</v>
+        <v>-33.3333333333334</v>
       </c>
       <c r="L148" t="n">
         <v>16.07</v>
@@ -7959,7 +7981,7 @@
         <v>13.8</v>
       </c>
       <c r="K149" t="n">
-        <v>-23.076923076923</v>
+        <v>-14.28571428571439</v>
       </c>
       <c r="L149" t="n">
         <v>16.01</v>
@@ -8010,7 +8032,7 @@
         <v>13.8</v>
       </c>
       <c r="K150" t="n">
-        <v>-23.076923076923</v>
+        <v>-45.45454545454531</v>
       </c>
       <c r="L150" t="n">
         <v>15.99</v>
@@ -8061,7 +8083,7 @@
         <v>13.9</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.3846153846153</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L151" t="n">
         <v>15.95</v>
@@ -8112,7 +8134,7 @@
         <v>13.9</v>
       </c>
       <c r="K152" t="n">
-        <v>-19.99999999999997</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L152" t="n">
         <v>15.91</v>
@@ -8163,7 +8185,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>-23.07692307692298</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>15.87</v>
@@ -8214,7 +8236,7 @@
         <v>14.09999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>-33.33333333333338</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L154" t="n">
         <v>15.87</v>
@@ -8265,7 +8287,7 @@
         <v>14.4</v>
       </c>
       <c r="K155" t="n">
-        <v>-18.51851851851852</v>
+        <v>40.00000000000021</v>
       </c>
       <c r="L155" t="n">
         <v>15.91</v>
@@ -8316,7 +8338,7 @@
         <v>14.6</v>
       </c>
       <c r="K156" t="n">
-        <v>-18.51851851851847</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L156" t="n">
         <v>15.93</v>
@@ -8367,7 +8389,7 @@
         <v>14.7</v>
       </c>
       <c r="K157" t="n">
-        <v>-18.51851851851855</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L157" t="n">
         <v>15.93</v>
@@ -8418,7 +8440,7 @@
         <v>14.8</v>
       </c>
       <c r="K158" t="n">
-        <v>-21.42857142857145</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>15.93</v>
@@ -8469,7 +8491,7 @@
         <v>14.8</v>
       </c>
       <c r="K159" t="n">
-        <v>-21.42857142857145</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>15.93</v>
@@ -8520,7 +8542,7 @@
         <v>14.9</v>
       </c>
       <c r="K160" t="n">
-        <v>-4.000000000000062</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>15.94</v>
@@ -8571,7 +8593,7 @@
         <v>14.9</v>
       </c>
       <c r="K161" t="n">
-        <v>-18.18181818181812</v>
+        <v>0</v>
       </c>
       <c r="L161" t="n">
         <v>15.94</v>
@@ -8622,7 +8644,7 @@
         <v>15</v>
       </c>
       <c r="K162" t="n">
-        <v>-13.04347826086944</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L162" t="n">
         <v>15.95</v>
@@ -8673,7 +8695,7 @@
         <v>15</v>
       </c>
       <c r="K163" t="n">
-        <v>-4.761904761904657</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>15.98</v>
@@ -8724,7 +8746,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>22.22222222222214</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L164" t="n">
         <v>16.02</v>
@@ -8775,7 +8797,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>29.41176470588237</v>
+        <v>60</v>
       </c>
       <c r="L165" t="n">
         <v>16.03</v>
@@ -8826,7 +8848,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>29.41176470588237</v>
+        <v>50</v>
       </c>
       <c r="L166" t="n">
         <v>16.06</v>
@@ -8877,7 +8899,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L167" t="n">
         <v>16.06</v>
@@ -8928,7 +8950,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>6.666666666666651</v>
+        <v>20</v>
       </c>
       <c r="L168" t="n">
         <v>16.07</v>
@@ -8979,7 +9001,7 @@
         <v>15.4</v>
       </c>
       <c r="K169" t="n">
-        <v>12.50000000000007</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L169" t="n">
         <v>16.09</v>
@@ -9030,7 +9052,7 @@
         <v>15.5</v>
       </c>
       <c r="K170" t="n">
-        <v>5.882352941176446</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>16.09</v>
@@ -9081,7 +9103,7 @@
         <v>15.5</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L171" t="n">
         <v>16.09</v>
@@ -9132,7 +9154,7 @@
         <v>15.5</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L172" t="n">
         <v>16.07999999999999</v>
@@ -9183,7 +9205,7 @@
         <v>15.5</v>
       </c>
       <c r="K173" t="n">
-        <v>14.28571428571421</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L173" t="n">
         <v>16.07</v>
@@ -9234,7 +9256,7 @@
         <v>15.7</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L174" t="n">
         <v>16.03</v>
@@ -9285,7 +9307,7 @@
         <v>15.8</v>
       </c>
       <c r="K175" t="n">
-        <v>-14.28571428571436</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L175" t="n">
         <v>16</v>
@@ -9336,7 +9358,7 @@
         <v>15.9</v>
       </c>
       <c r="K176" t="n">
-        <v>7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>15.98</v>
@@ -9387,7 +9409,7 @@
         <v>16</v>
       </c>
       <c r="K177" t="n">
-        <v>7.692307692307796</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L177" t="n">
         <v>15.99</v>
@@ -9438,7 +9460,7 @@
         <v>16.2</v>
       </c>
       <c r="K178" t="n">
-        <v>28.57142857142859</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L178" t="n">
         <v>16.02</v>
@@ -9489,7 +9511,7 @@
         <v>16.2</v>
       </c>
       <c r="K179" t="n">
-        <v>28.57142857142859</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L179" t="n">
         <v>16.04</v>
@@ -9540,7 +9562,7 @@
         <v>16.29999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>28.5714285714285</v>
+        <v>50</v>
       </c>
       <c r="L180" t="n">
         <v>16.08000000000001</v>
@@ -9591,7 +9613,7 @@
         <v>16.5</v>
       </c>
       <c r="K181" t="n">
-        <v>37.50000000000006</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L181" t="n">
         <v>16.14</v>
@@ -9642,7 +9664,7 @@
         <v>16.5</v>
       </c>
       <c r="K182" t="n">
-        <v>33.33333333333333</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L182" t="n">
         <v>16.2</v>
@@ -9693,7 +9715,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>37.49999999999991</v>
+        <v>100</v>
       </c>
       <c r="L183" t="n">
         <v>16.27</v>
@@ -9744,7 +9766,7 @@
         <v>16.69999999999999</v>
       </c>
       <c r="K184" t="n">
-        <v>25.00000000000017</v>
+        <v>77.77777777777817</v>
       </c>
       <c r="L184" t="n">
         <v>16.35</v>
@@ -9795,7 +9817,7 @@
         <v>16.79999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>17.64705882352946</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L185" t="n">
         <v>16.41</v>
@@ -9846,7 +9868,7 @@
         <v>16.9</v>
       </c>
       <c r="K186" t="n">
-        <v>22.22222222222233</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L186" t="n">
         <v>16.47</v>
@@ -9897,7 +9919,7 @@
         <v>16.9</v>
       </c>
       <c r="K187" t="n">
-        <v>37.50000000000006</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L187" t="n">
         <v>16.52</v>
@@ -9948,7 +9970,7 @@
         <v>16.9</v>
       </c>
       <c r="K188" t="n">
-        <v>37.50000000000006</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L188" t="n">
         <v>16.55</v>
@@ -9999,7 +10021,7 @@
         <v>16.9</v>
       </c>
       <c r="K189" t="n">
-        <v>33.33333333333333</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L189" t="n">
         <v>16.57999999999999</v>
@@ -10050,7 +10072,7 @@
         <v>16.9</v>
       </c>
       <c r="K190" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>16.59999999999999</v>
@@ -10101,7 +10123,7 @@
         <v>16.9</v>
       </c>
       <c r="K191" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>16.59999999999999</v>
@@ -10152,7 +10174,7 @@
         <v>16.9</v>
       </c>
       <c r="K192" t="n">
-        <v>42.857142857143</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L192" t="n">
         <v>16.59999999999999</v>
@@ -10203,7 +10225,7 @@
         <v>16.9</v>
       </c>
       <c r="K193" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>16.59</v>
@@ -10254,7 +10276,7 @@
         <v>17.1</v>
       </c>
       <c r="K194" t="n">
-        <v>42.85714285714264</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>16.57</v>
@@ -10305,7 +10327,7 @@
         <v>17.4</v>
       </c>
       <c r="K195" t="n">
-        <v>49.99999999999984</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L195" t="n">
         <v>16.59</v>
@@ -10356,7 +10378,7 @@
         <v>17.5</v>
       </c>
       <c r="K196" t="n">
-        <v>49.99999999999989</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L196" t="n">
         <v>16.61</v>
@@ -10407,7 +10429,7 @@
         <v>17.5</v>
       </c>
       <c r="K197" t="n">
-        <v>46.66666666666651</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L197" t="n">
         <v>16.63</v>
@@ -10458,7 +10480,7 @@
         <v>17.7</v>
       </c>
       <c r="K198" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>16.63</v>
@@ -10509,7 +10531,7 @@
         <v>17.9</v>
       </c>
       <c r="K199" t="n">
-        <v>29.41176470588231</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L199" t="n">
         <v>16.65</v>
@@ -10560,7 +10582,7 @@
         <v>17.9</v>
       </c>
       <c r="K200" t="n">
-        <v>25.00000000000006</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L200" t="n">
         <v>16.67</v>
@@ -10611,7 +10633,7 @@
         <v>17.9</v>
       </c>
       <c r="K201" t="n">
-        <v>14.28571428571421</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L201" t="n">
         <v>16.69</v>
@@ -10662,7 +10684,7 @@
         <v>18.1</v>
       </c>
       <c r="K202" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L202" t="n">
         <v>16.73</v>
@@ -10713,7 +10735,7 @@
         <v>18.1</v>
       </c>
       <c r="K203" t="n">
-        <v>20</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L203" t="n">
         <v>16.77</v>
@@ -10764,7 +10786,7 @@
         <v>18.3</v>
       </c>
       <c r="K204" t="n">
-        <v>37.49999999999975</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L204" t="n">
         <v>16.85</v>
@@ -10815,7 +10837,7 @@
         <v>18.4</v>
       </c>
       <c r="K205" t="n">
-        <v>49.99999999999989</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L205" t="n">
         <v>16.91</v>
@@ -10866,7 +10888,7 @@
         <v>18.5</v>
       </c>
       <c r="K206" t="n">
-        <v>49.99999999999978</v>
+        <v>60</v>
       </c>
       <c r="L206" t="n">
         <v>16.97000000000001</v>
@@ -10917,7 +10939,7 @@
         <v>18.59999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>41.17647058823527</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L207" t="n">
         <v>17.02</v>
@@ -10968,7 +10990,7 @@
         <v>18.69999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>44.44444444444436</v>
+        <v>75.00000000000033</v>
       </c>
       <c r="L208" t="n">
         <v>17.1</v>
@@ -11019,7 +11041,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>23.80952380952387</v>
+        <v>27.27272727272756</v>
       </c>
       <c r="L209" t="n">
         <v>17.13</v>
@@ -11070,7 +11092,7 @@
         <v>18.99999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>23.80952380952387</v>
+        <v>27.27272727272756</v>
       </c>
       <c r="L210" t="n">
         <v>17.16</v>
@@ -11121,7 +11143,7 @@
         <v>19.09999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>27.27272727272727</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L211" t="n">
         <v>17.2</v>
@@ -11172,7 +11194,7 @@
         <v>19.19999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>30.43478260869571</v>
+        <v>27.27272727272756</v>
       </c>
       <c r="L212" t="n">
         <v>17.23</v>
@@ -11223,7 +11245,7 @@
         <v>19.29999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>24.99999999999996</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>17.25</v>
@@ -11274,7 +11296,7 @@
         <v>19.39999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>30.43478260869591</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L214" t="n">
         <v>17.24</v>
@@ -11325,7 +11347,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K215" t="n">
-        <v>23.80952380952396</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L215" t="n">
         <v>17.23</v>
@@ -11376,7 +11398,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K216" t="n">
-        <v>20.00000000000007</v>
+        <v>-11.11111111111137</v>
       </c>
       <c r="L216" t="n">
         <v>17.21</v>
@@ -11427,7 +11449,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K217" t="n">
-        <v>20.00000000000007</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L217" t="n">
         <v>17.2</v>
@@ -11478,7 +11500,7 @@
         <v>19.49999999999999</v>
       </c>
       <c r="K218" t="n">
-        <v>33.33333333333346</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L218" t="n">
         <v>17.17999999999999</v>
@@ -11529,7 +11551,7 @@
         <v>19.69999999999999</v>
       </c>
       <c r="K219" t="n">
-        <v>11.11111111111116</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L219" t="n">
         <v>17.16999999999999</v>
@@ -11580,7 +11602,7 @@
         <v>19.69999999999999</v>
       </c>
       <c r="K220" t="n">
-        <v>11.11111111111116</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>17.15999999999999</v>
@@ -11631,7 +11653,7 @@
         <v>19.69999999999999</v>
       </c>
       <c r="K221" t="n">
-        <v>11.11111111111116</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L221" t="n">
         <v>17.13999999999999</v>
@@ -11682,7 +11704,7 @@
         <v>19.79999999999999</v>
       </c>
       <c r="K222" t="n">
-        <v>-5.882352941176594</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L222" t="n">
         <v>17.09999999999999</v>
@@ -11733,7 +11755,7 @@
         <v>19.79999999999999</v>
       </c>
       <c r="K223" t="n">
-        <v>-5.882352941176594</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L223" t="n">
         <v>17.07</v>
@@ -11784,7 +11806,7 @@
         <v>19.89999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>-25.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L224" t="n">
         <v>17.04</v>
@@ -11835,7 +11857,7 @@
         <v>19.99999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>-25.00000000000039</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L225" t="n">
         <v>17.01</v>
@@ -11886,7 +11908,7 @@
         <v>20.19999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>-41.17647058823562</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L226" t="n">
         <v>16.96</v>
@@ -11937,7 +11959,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>-22.22222222222251</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L227" t="n">
         <v>16.93</v>
@@ -11988,7 +12010,7 @@
         <v>20.39999999999998</v>
       </c>
       <c r="K228" t="n">
-        <v>-29.41176470588255</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L228" t="n">
         <v>16.9</v>
@@ -12039,7 +12061,7 @@
         <v>20.59999999999998</v>
       </c>
       <c r="K229" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L229" t="n">
         <v>16.91</v>
@@ -12090,7 +12112,7 @@
         <v>20.79999999999999</v>
       </c>
       <c r="K230" t="n">
-        <v>-11.11111111111129</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L230" t="n">
         <v>16.9</v>
@@ -12141,7 +12163,7 @@
         <v>20.89999999999998</v>
       </c>
       <c r="K231" t="n">
-        <v>-22.22222222222218</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L231" t="n">
         <v>16.88</v>
@@ -12192,7 +12214,7 @@
         <v>20.99999999999998</v>
       </c>
       <c r="K232" t="n">
-        <v>-22.22222222222242</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>16.88</v>
@@ -12243,7 +12265,7 @@
         <v>21.29999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>-30.00000000000005</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>16.85</v>
@@ -12294,7 +12316,7 @@
         <v>21.59999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>-9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>16.86</v>
@@ -12345,7 +12367,7 @@
         <v>21.59999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>-14.28571428571438</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>16.86</v>
@@ -12396,7 +12418,7 @@
         <v>21.79999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>-21.7391304347827</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L236" t="n">
         <v>16.86</v>
@@ -12447,7 +12469,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>-16.66666666666666</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L237" t="n">
         <v>16.85</v>
@@ -12498,7 +12520,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>-16.66666666666666</v>
+        <v>-23.07692307692324</v>
       </c>
       <c r="L238" t="n">
         <v>16.84</v>
@@ -12549,7 +12571,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>-9.090909090909092</v>
+        <v>-9.090909090908973</v>
       </c>
       <c r="L239" t="n">
         <v>16.81000000000001</v>
@@ -12600,7 +12622,7 @@
         <v>22.09999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>-16.66666666666666</v>
+        <v>-16.66666666666671</v>
       </c>
       <c r="L240" t="n">
         <v>16.78</v>
@@ -12651,7 +12673,7 @@
         <v>22.09999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>-16.66666666666666</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L241" t="n">
         <v>16.76</v>
@@ -12702,7 +12724,7 @@
         <v>22.19999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>-16.66666666666666</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L242" t="n">
         <v>16.72</v>
@@ -12753,7 +12775,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>-11.99999999999992</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L243" t="n">
         <v>16.72</v>
@@ -12804,7 +12826,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>-8.33333333333332</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L244" t="n">
         <v>16.69</v>
@@ -12855,7 +12877,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>-13.04347826086946</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L245" t="n">
         <v>16.66</v>
@@ -12906,7 +12928,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K246" t="n">
-        <v>-4.761904761904665</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L246" t="n">
         <v>16.65</v>
@@ -12957,7 +12979,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K247" t="n">
-        <v>-15.78947368421039</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L247" t="n">
         <v>16.63</v>
@@ -13008,7 +13030,7 @@
         <v>22.29999999999998</v>
       </c>
       <c r="K248" t="n">
-        <v>-15.78947368421039</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L248" t="n">
         <v>16.61</v>
@@ -13059,7 +13081,7 @@
         <v>22.49999999999998</v>
       </c>
       <c r="K249" t="n">
-        <v>-15.78947368421061</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L249" t="n">
         <v>16.61</v>
@@ -13110,7 +13132,7 @@
         <v>22.59999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L250" t="n">
         <v>16.64</v>
@@ -13161,7 +13183,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L251" t="n">
         <v>16.66</v>
@@ -13212,7 +13234,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L252" t="n">
         <v>16.7</v>
@@ -13263,7 +13285,7 @@
         <v>22.89999999999997</v>
       </c>
       <c r="K253" t="n">
-        <v>25</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L253" t="n">
         <v>16.74</v>
@@ -13314,7 +13336,7 @@
         <v>22.89999999999997</v>
       </c>
       <c r="K254" t="n">
-        <v>7.692307692307819</v>
+        <v>66.66666666666707</v>
       </c>
       <c r="L254" t="n">
         <v>16.78</v>
@@ -13365,7 +13387,7 @@
         <v>22.99999999999998</v>
       </c>
       <c r="K255" t="n">
-        <v>0</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L255" t="n">
         <v>16.81</v>
@@ -13416,7 +13438,7 @@
         <v>22.99999999999998</v>
       </c>
       <c r="K256" t="n">
-        <v>16.66666666666662</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L256" t="n">
         <v>16.84</v>
@@ -13467,7 +13489,7 @@
         <v>22.99999999999998</v>
       </c>
       <c r="K257" t="n">
-        <v>9.090909090908914</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L257" t="n">
         <v>16.87</v>
@@ -13518,7 +13540,7 @@
         <v>23.19999999999998</v>
       </c>
       <c r="K258" t="n">
-        <v>23.07692307692312</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L258" t="n">
         <v>16.92000000000001</v>
@@ -13569,7 +13591,7 @@
         <v>23.19999999999998</v>
       </c>
       <c r="K259" t="n">
-        <v>23.07692307692312</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L259" t="n">
         <v>16.95</v>
@@ -13620,7 +13642,7 @@
         <v>23.29999999999998</v>
       </c>
       <c r="K260" t="n">
-        <v>33.33333333333314</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L260" t="n">
         <v>16.96</v>
@@ -13671,7 +13693,7 @@
         <v>23.49999999999998</v>
       </c>
       <c r="K261" t="n">
-        <v>42.85714285714264</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L261" t="n">
         <v>17</v>
@@ -13722,7 +13744,7 @@
         <v>23.59999999999998</v>
       </c>
       <c r="K262" t="n">
-        <v>57.1428571428571</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L262" t="n">
         <v>17.04</v>
@@ -13773,7 +13795,7 @@
         <v>23.59999999999998</v>
       </c>
       <c r="K263" t="n">
-        <v>53.84615384615377</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L263" t="n">
         <v>17.07</v>
@@ -13824,7 +13846,7 @@
         <v>23.69999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>57.142857142857</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L264" t="n">
         <v>17.11</v>
@@ -13875,7 +13897,7 @@
         <v>23.79999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>46.66666666666673</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L265" t="n">
         <v>17.15</v>
@@ -13926,7 +13948,7 @@
         <v>23.89999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>37.49999999999991</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>17.18</v>
@@ -13977,7 +13999,7 @@
         <v>24.09999999999998</v>
       </c>
       <c r="K267" t="n">
-        <v>44.44444444444436</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L267" t="n">
         <v>17.23</v>
@@ -14028,7 +14050,7 @@
         <v>24.09999999999998</v>
       </c>
       <c r="K268" t="n">
-        <v>44.44444444444436</v>
+        <v>33.33333333333307</v>
       </c>
       <c r="L268" t="n">
         <v>17.26</v>
@@ -14079,7 +14101,7 @@
         <v>24.19999999999998</v>
       </c>
       <c r="K269" t="n">
-        <v>41.17647058823527</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L269" t="n">
         <v>17.3</v>
@@ -14130,7 +14152,7 @@
         <v>24.19999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>37.50000000000006</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L270" t="n">
         <v>17.35</v>
@@ -14181,7 +14203,7 @@
         <v>24.29999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>37.49999999999975</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L271" t="n">
         <v>17.37</v>
@@ -14232,7 +14254,7 @@
         <v>24.29999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>33.33333333333318</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L272" t="n">
         <v>17.38</v>
@@ -14283,7 +14305,7 @@
         <v>24.29999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>28.57142857142835</v>
+        <v>0</v>
       </c>
       <c r="L273" t="n">
         <v>17.39</v>
@@ -14334,7 +14356,7 @@
         <v>24.29999999999998</v>
       </c>
       <c r="K274" t="n">
-        <v>28.57142857142835</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L274" t="n">
         <v>17.39</v>
@@ -14385,7 +14407,7 @@
         <v>24.29999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>38.46153846153834</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L275" t="n">
         <v>17.4</v>
@@ -14436,7 +14458,7 @@
         <v>24.39999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>42.85714285714278</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>17.43</v>
@@ -14487,7 +14509,7 @@
         <v>24.49999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>33.33333333333318</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>17.43</v>
@@ -14538,7 +14560,7 @@
         <v>24.49999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>23.07692307692279</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L278" t="n">
         <v>17.43</v>
@@ -14589,7 +14611,7 @@
         <v>24.69999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>6.666666666666508</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L279" t="n">
         <v>17.4</v>
@@ -14640,7 +14662,7 @@
         <v>24.69999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>14.28571428571421</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L280" t="n">
         <v>17.37</v>
@@ -14691,7 +14713,7 @@
         <v>24.79999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>-7.692307692307525</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L281" t="n">
         <v>17.34</v>
@@ -14742,7 +14764,7 @@
         <v>24.99999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L282" t="n">
         <v>17.33</v>
@@ -14793,7 +14815,7 @@
         <v>24.99999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L283" t="n">
         <v>17.32</v>
@@ -14895,7 +14917,7 @@
         <v>25.49999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>-17.64705882352946</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L285" t="n">
         <v>17.28</v>
@@ -14946,7 +14968,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K286" t="n">
-        <v>-5.882352941176348</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L286" t="n">
         <v>17.24</v>
@@ -14997,7 +15019,7 @@
         <v>25.69999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>-24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>17.2</v>
@@ -15048,7 +15070,7 @@
         <v>25.89999999999998</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L288" t="n">
         <v>17.18</v>
@@ -15099,7 +15121,7 @@
         <v>26.09999999999998</v>
       </c>
       <c r="K289" t="n">
-        <v>-26.31578947368423</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L289" t="n">
         <v>17.16</v>
@@ -15150,7 +15172,7 @@
         <v>26.09999999999998</v>
       </c>
       <c r="K290" t="n">
-        <v>-26.31578947368423</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L290" t="n">
         <v>17.14</v>
@@ -15201,7 +15223,7 @@
         <v>26.09999999999998</v>
       </c>
       <c r="K291" t="n">
-        <v>-22.22222222222218</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L291" t="n">
         <v>17.13</v>
@@ -15252,7 +15274,7 @@
         <v>26.29999999999998</v>
       </c>
       <c r="K292" t="n">
-        <v>-29.99999999999995</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L292" t="n">
         <v>17.08</v>
@@ -15303,7 +15325,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K293" t="n">
-        <v>-23.80952380952387</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L293" t="n">
         <v>17.04</v>
@@ -15354,7 +15376,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K294" t="n">
-        <v>-23.80952380952387</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L294" t="n">
         <v>16.99</v>
@@ -15405,7 +15427,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K295" t="n">
-        <v>-23.80952380952387</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L295" t="n">
         <v>16.98</v>
@@ -15456,7 +15478,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K296" t="n">
-        <v>-30.00000000000018</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L296" t="n">
         <v>16.96</v>
@@ -15507,7 +15529,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K297" t="n">
-        <v>-26.31578947368433</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L297" t="n">
         <v>16.95</v>
@@ -15558,7 +15580,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K298" t="n">
-        <v>-26.31578947368433</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L298" t="n">
         <v>16.92000000000001</v>
@@ -15609,7 +15631,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K299" t="n">
-        <v>-17.64705882352953</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L299" t="n">
         <v>16.91</v>
@@ -15660,7 +15682,7 @@
         <v>26.39999999999997</v>
       </c>
       <c r="K300" t="n">
-        <v>-17.64705882352953</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L300" t="n">
         <v>16.90000000000001</v>
@@ -15711,7 +15733,7 @@
         <v>26.49999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>-5.882352941176569</v>
+        <v>100</v>
       </c>
       <c r="L301" t="n">
         <v>16.90000000000001</v>
@@ -15762,7 +15784,7 @@
         <v>26.59999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>-12.49999999999997</v>
+        <v>100</v>
       </c>
       <c r="L302" t="n">
         <v>16.93</v>
@@ -15813,7 +15835,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K303" t="n">
-        <v>-5.882352941176569</v>
+        <v>100</v>
       </c>
       <c r="L303" t="n">
         <v>16.96</v>
@@ -15864,7 +15886,7 @@
         <v>26.99999999999998</v>
       </c>
       <c r="K304" t="n">
-        <v>5.263157894736921</v>
+        <v>100</v>
       </c>
       <c r="L304" t="n">
         <v>17.02</v>
@@ -15915,7 +15937,7 @@
         <v>26.99999999999998</v>
       </c>
       <c r="K305" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L305" t="n">
         <v>17.08</v>
@@ -15966,7 +15988,7 @@
         <v>27.19999999999997</v>
       </c>
       <c r="K306" t="n">
-        <v>12.49999999999997</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L306" t="n">
         <v>17.12</v>
@@ -16017,7 +16039,7 @@
         <v>27.19999999999997</v>
       </c>
       <c r="K307" t="n">
-        <v>20.0000000000001</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L307" t="n">
         <v>17.16</v>
@@ -16068,7 +16090,7 @@
         <v>27.19999999999997</v>
       </c>
       <c r="K308" t="n">
-        <v>7.692307692307819</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L308" t="n">
         <v>17.2</v>
@@ -16119,7 +16141,7 @@
         <v>27.19999999999997</v>
       </c>
       <c r="K309" t="n">
-        <v>27.27272727272739</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L309" t="n">
         <v>17.24</v>
@@ -16170,7 +16192,7 @@
         <v>27.29999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>16.66666666666662</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L310" t="n">
         <v>17.27</v>
@@ -16221,7 +16243,7 @@
         <v>27.39999999999998</v>
       </c>
       <c r="K311" t="n">
-        <v>23.07692307692312</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L311" t="n">
         <v>17.3</v>
@@ -16272,7 +16294,7 @@
         <v>27.39999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>45.4545454545454</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L312" t="n">
         <v>17.32</v>
@@ -16323,7 +16345,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K313" t="n">
-        <v>45.4545454545454</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L313" t="n">
         <v>17.34000000000001</v>
@@ -16374,7 +16396,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>45.4545454545454</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L314" t="n">
         <v>17.33000000000001</v>
@@ -16425,7 +16447,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>45.4545454545454</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L315" t="n">
         <v>17.32000000000001</v>
@@ -16476,7 +16498,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K316" t="n">
-        <v>45.4545454545454</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L316" t="n">
         <v>17.33000000000001</v>
@@ -16527,7 +16549,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K317" t="n">
-        <v>45.4545454545454</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L317" t="n">
         <v>17.34000000000001</v>
@@ -16578,7 +16600,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K318" t="n">
-        <v>45.4545454545454</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L318" t="n">
         <v>17.35</v>
@@ -16629,7 +16651,7 @@
         <v>27.69999999999997</v>
       </c>
       <c r="K319" t="n">
-        <v>23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>17.34</v>
@@ -16680,7 +16702,7 @@
         <v>27.79999999999998</v>
       </c>
       <c r="K320" t="n">
-        <v>28.57142857142868</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>17.35</v>
@@ -16731,7 +16753,7 @@
         <v>27.79999999999998</v>
       </c>
       <c r="K321" t="n">
-        <v>23.07692307692312</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>17.35</v>
@@ -16782,7 +16804,7 @@
         <v>27.79999999999998</v>
       </c>
       <c r="K322" t="n">
-        <v>16.66666666666662</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L322" t="n">
         <v>17.35</v>
@@ -16833,7 +16855,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L323" t="n">
         <v>17.33000000000001</v>
@@ -16884,7 +16906,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K324" t="n">
-        <v>-33.33333333333333</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L324" t="n">
         <v>17.31</v>
@@ -16935,7 +16957,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K325" t="n">
-        <v>-33.33333333333333</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L325" t="n">
         <v>17.29</v>
@@ -16986,7 +17008,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K326" t="n">
-        <v>-14.28571428571443</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L326" t="n">
         <v>17.27</v>
@@ -17037,7 +17059,7 @@
         <v>27.99999999999998</v>
       </c>
       <c r="K327" t="n">
-        <v>-24.99999999999989</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L327" t="n">
         <v>17.24</v>
@@ -17088,7 +17110,7 @@
         <v>28.19999999999997</v>
       </c>
       <c r="K328" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L328" t="n">
         <v>17.23</v>
@@ -17190,7 +17212,7 @@
         <v>28.29999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L330" t="n">
         <v>17.23</v>
@@ -17241,7 +17263,7 @@
         <v>28.29999999999998</v>
       </c>
       <c r="K331" t="n">
-        <v>-11.11111111111129</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L331" t="n">
         <v>17.22</v>
@@ -17292,7 +17314,7 @@
         <v>28.29999999999998</v>
       </c>
       <c r="K332" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>17.20999999999999</v>
@@ -17343,7 +17365,7 @@
         <v>28.29999999999998</v>
       </c>
       <c r="K333" t="n">
-        <v>-24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L333" t="n">
         <v>17.20999999999999</v>
@@ -17394,7 +17416,7 @@
         <v>28.29999999999998</v>
       </c>
       <c r="K334" t="n">
-        <v>-24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L334" t="n">
         <v>17.20999999999999</v>
@@ -17445,7 +17467,7 @@
         <v>28.39999999999997</v>
       </c>
       <c r="K335" t="n">
-        <v>-33.33333333333307</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L335" t="n">
         <v>17.2</v>
@@ -17496,7 +17518,7 @@
         <v>28.39999999999997</v>
       </c>
       <c r="K336" t="n">
-        <v>-33.33333333333307</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>17.18999999999999</v>
@@ -17547,7 +17569,7 @@
         <v>28.39999999999997</v>
       </c>
       <c r="K337" t="n">
-        <v>-33.33333333333307</v>
+        <v>-100</v>
       </c>
       <c r="L337" t="n">
         <v>17.18999999999999</v>
@@ -17598,7 +17620,7 @@
         <v>28.49999999999997</v>
       </c>
       <c r="K338" t="n">
-        <v>-20</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L338" t="n">
         <v>17.17999999999999</v>
@@ -17649,7 +17671,7 @@
         <v>28.59999999999997</v>
       </c>
       <c r="K339" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>17.15999999999999</v>
@@ -17700,7 +17722,7 @@
         <v>28.59999999999997</v>
       </c>
       <c r="K340" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L340" t="n">
         <v>17.14999999999999</v>
@@ -17751,7 +17773,7 @@
         <v>28.59999999999997</v>
       </c>
       <c r="K341" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L341" t="n">
         <v>17.13999999999999</v>
@@ -17802,7 +17824,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K342" t="n">
-        <v>-33.3333333333336</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L342" t="n">
         <v>17.11999999999999</v>
@@ -17853,7 +17875,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K343" t="n">
-        <v>-25.00000000000011</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L343" t="n">
         <v>17.09999999999999</v>
@@ -17904,7 +17926,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K344" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L344" t="n">
         <v>17.07999999999999</v>
@@ -17955,7 +17977,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K345" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L345" t="n">
         <v>17.07</v>
@@ -18006,7 +18028,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K346" t="n">
-        <v>-25.00000000000011</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L346" t="n">
         <v>17.06</v>
@@ -18057,7 +18079,7 @@
         <v>28.79999999999997</v>
       </c>
       <c r="K347" t="n">
-        <v>-25.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L347" t="n">
         <v>17.04</v>
@@ -18108,7 +18130,7 @@
         <v>28.79999999999997</v>
       </c>
       <c r="K348" t="n">
-        <v>-66.66666666666727</v>
+        <v>-100</v>
       </c>
       <c r="L348" t="n">
         <v>17.01</v>
@@ -18159,7 +18181,7 @@
         <v>28.89999999999997</v>
       </c>
       <c r="K349" t="n">
-        <v>-71.42857142857186</v>
+        <v>-100</v>
       </c>
       <c r="L349" t="n">
         <v>16.98</v>
@@ -18210,7 +18232,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K350" t="n">
-        <v>-42.85714285714344</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L350" t="n">
         <v>16.96</v>
@@ -18261,7 +18283,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K351" t="n">
-        <v>-42.85714285714344</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L351" t="n">
         <v>16.94</v>
@@ -18312,7 +18334,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K352" t="n">
-        <v>-42.85714285714344</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L352" t="n">
         <v>16.93</v>
@@ -18363,7 +18385,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K353" t="n">
-        <v>-42.85714285714344</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L353" t="n">
         <v>16.92000000000001</v>
@@ -18414,7 +18436,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K354" t="n">
-        <v>-42.85714285714344</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L354" t="n">
         <v>16.91</v>
@@ -18465,7 +18487,7 @@
         <v>29.09999999999997</v>
       </c>
       <c r="K355" t="n">
-        <v>-42.85714285714344</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L355" t="n">
         <v>16.89000000000001</v>
@@ -18516,7 +18538,7 @@
         <v>29.29999999999997</v>
       </c>
       <c r="K356" t="n">
-        <v>-11.11111111111137</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L356" t="n">
         <v>16.89000000000001</v>
@@ -18567,7 +18589,7 @@
         <v>29.59999999999997</v>
       </c>
       <c r="K357" t="n">
-        <v>-33.33333333333373</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L357" t="n">
         <v>16.87</v>
@@ -18618,7 +18640,7 @@
         <v>29.79999999999997</v>
       </c>
       <c r="K358" t="n">
-        <v>-23.07692307692324</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L358" t="n">
         <v>16.87</v>
@@ -18669,7 +18691,7 @@
         <v>29.79999999999997</v>
       </c>
       <c r="K359" t="n">
-        <v>-16.66666666666696</v>
+        <v>0</v>
       </c>
       <c r="L359" t="n">
         <v>16.88</v>
@@ -18720,7 +18742,7 @@
         <v>29.89999999999997</v>
       </c>
       <c r="K360" t="n">
-        <v>-7.692307692307819</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L360" t="n">
         <v>16.89</v>
@@ -18771,7 +18793,7 @@
         <v>29.89999999999997</v>
       </c>
       <c r="K361" t="n">
-        <v>-7.692307692307819</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L361" t="n">
         <v>16.9</v>
@@ -18822,7 +18844,7 @@
         <v>29.99999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>16.9</v>
@@ -18873,7 +18895,7 @@
         <v>30.09999999999997</v>
       </c>
       <c r="K363" t="n">
-        <v>-14.28571428571428</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L363" t="n">
         <v>16.89</v>
@@ -18924,7 +18946,7 @@
         <v>30.19999999999996</v>
       </c>
       <c r="K364" t="n">
-        <v>-6.666666666666793</v>
+        <v>9.090909090908914</v>
       </c>
       <c r="L364" t="n">
         <v>16.89</v>
@@ -19026,7 +19048,7 @@
         <v>30.29999999999997</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L366" t="n">
         <v>16.91</v>
@@ -19128,7 +19150,7 @@
         <v>30.49999999999997</v>
       </c>
       <c r="K368" t="n">
-        <v>5.882352941176569</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L368" t="n">
         <v>16.94</v>
@@ -19179,7 +19201,7 @@
         <v>30.59999999999997</v>
       </c>
       <c r="K369" t="n">
-        <v>17.64705882352946</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L369" t="n">
         <v>16.96</v>
@@ -19230,7 +19252,7 @@
         <v>30.59999999999997</v>
       </c>
       <c r="K370" t="n">
-        <v>12.50000000000017</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L370" t="n">
         <v>16.97</v>
@@ -19281,7 +19303,7 @@
         <v>30.59999999999997</v>
       </c>
       <c r="K371" t="n">
-        <v>12.50000000000017</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L371" t="n">
         <v>16.98</v>
@@ -19332,7 +19354,7 @@
         <v>30.59999999999997</v>
       </c>
       <c r="K372" t="n">
-        <v>12.50000000000017</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L372" t="n">
         <v>17</v>
@@ -19383,7 +19405,7 @@
         <v>30.69999999999997</v>
       </c>
       <c r="K373" t="n">
-        <v>5.882352941176544</v>
+        <v>20</v>
       </c>
       <c r="L373" t="n">
         <v>17.02</v>
@@ -19434,7 +19456,7 @@
         <v>30.79999999999997</v>
       </c>
       <c r="K374" t="n">
-        <v>11.11111111111124</v>
+        <v>20</v>
       </c>
       <c r="L374" t="n">
         <v>17.04</v>
@@ -19485,7 +19507,7 @@
         <v>30.99999999999998</v>
       </c>
       <c r="K375" t="n">
-        <v>5.263157894736705</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L375" t="n">
         <v>17.03</v>
@@ -19536,7 +19558,7 @@
         <v>31.19999999999998</v>
       </c>
       <c r="K376" t="n">
-        <v>5.263157894736882</v>
+        <v>25</v>
       </c>
       <c r="L376" t="n">
         <v>17.04</v>
@@ -19587,7 +19609,7 @@
         <v>31.39999999999998</v>
       </c>
       <c r="K377" t="n">
-        <v>11.11111111111098</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L377" t="n">
         <v>17.04</v>
@@ -19638,7 +19660,7 @@
         <v>31.39999999999998</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L378" t="n">
         <v>17.03</v>
@@ -19689,7 +19711,7 @@
         <v>31.39999999999998</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L379" t="n">
         <v>17.01</v>
@@ -19740,7 +19762,7 @@
         <v>31.59999999999998</v>
       </c>
       <c r="K380" t="n">
-        <v>5.882352941176496</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>17.01</v>
@@ -19791,7 +19813,7 @@
         <v>31.89999999999998</v>
       </c>
       <c r="K381" t="n">
-        <v>-9.999999999999876</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L381" t="n">
         <v>16.98</v>
@@ -19842,7 +19864,7 @@
         <v>31.99999999999998</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>-7.692307692307734</v>
       </c>
       <c r="L382" t="n">
         <v>16.96</v>
@@ -19893,7 +19915,7 @@
         <v>32.09999999999998</v>
       </c>
       <c r="K383" t="n">
-        <v>0</v>
+        <v>-23.07692307692299</v>
       </c>
       <c r="L383" t="n">
         <v>16.94</v>
@@ -19944,7 +19966,7 @@
         <v>32.09999999999998</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.263157894736684</v>
+        <v>-9.090909090908857</v>
       </c>
       <c r="L384" t="n">
         <v>16.91</v>
@@ -19995,7 +20017,7 @@
         <v>32.19999999999997</v>
       </c>
       <c r="K385" t="n">
-        <v>-5.263157894736891</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L385" t="n">
         <v>16.91</v>
@@ -20046,7 +20068,7 @@
         <v>32.29999999999998</v>
       </c>
       <c r="K386" t="n">
-        <v>0</v>
+        <v>11.11111111111133</v>
       </c>
       <c r="L386" t="n">
         <v>16.90000000000001</v>
@@ -20148,7 +20170,7 @@
         <v>32.49999999999998</v>
       </c>
       <c r="K388" t="n">
-        <v>0</v>
+        <v>9.090909090909239</v>
       </c>
       <c r="L388" t="n">
         <v>16.91</v>
@@ -20199,7 +20221,7 @@
         <v>32.59999999999998</v>
       </c>
       <c r="K389" t="n">
-        <v>-10.00000000000009</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L389" t="n">
         <v>16.91</v>
@@ -20250,7 +20272,7 @@
         <v>32.59999999999998</v>
       </c>
       <c r="K390" t="n">
-        <v>-10.00000000000009</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L390" t="n">
         <v>16.89000000000001</v>
@@ -20301,7 +20323,7 @@
         <v>32.69999999999998</v>
       </c>
       <c r="K391" t="n">
-        <v>-4.761904761904802</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L391" t="n">
         <v>16.91</v>
@@ -20352,7 +20374,7 @@
         <v>32.89999999999998</v>
       </c>
       <c r="K392" t="n">
-        <v>-13.04347826086955</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>16.90000000000001</v>
@@ -20403,7 +20425,7 @@
         <v>32.89999999999998</v>
       </c>
       <c r="K393" t="n">
-        <v>-9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>16.90000000000001</v>
@@ -20454,7 +20476,7 @@
         <v>32.99999999999998</v>
       </c>
       <c r="K394" t="n">
-        <v>-18.18181818181823</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L394" t="n">
         <v>16.89</v>
@@ -20505,7 +20527,7 @@
         <v>33.09999999999998</v>
       </c>
       <c r="K395" t="n">
-        <v>-4.761904761904649</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L395" t="n">
         <v>16.88</v>
@@ -20556,7 +20578,7 @@
         <v>33.09999999999998</v>
       </c>
       <c r="K396" t="n">
-        <v>-15.78947368421055</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L396" t="n">
         <v>16.86000000000001</v>
@@ -20607,7 +20629,7 @@
         <v>33.09999999999998</v>
       </c>
       <c r="K397" t="n">
-        <v>-5.882352941176348</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L397" t="n">
         <v>16.85</v>
@@ -20709,7 +20731,7 @@
         <v>33.39999999999998</v>
       </c>
       <c r="K399" t="n">
-        <v>-9.999999999999982</v>
+        <v>-25</v>
       </c>
       <c r="L399" t="n">
         <v>16.82</v>
@@ -20760,7 +20782,7 @@
         <v>33.39999999999998</v>
       </c>
       <c r="K400" t="n">
-        <v>-22.22222222222242</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L400" t="n">
         <v>16.8</v>
@@ -20811,7 +20833,7 @@
         <v>33.39999999999998</v>
       </c>
       <c r="K401" t="n">
-        <v>-6.666666666666793</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L401" t="n">
         <v>16.77</v>
@@ -20862,7 +20884,7 @@
         <v>33.39999999999998</v>
       </c>
       <c r="K402" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L402" t="n">
         <v>16.76</v>
@@ -20913,7 +20935,7 @@
         <v>33.49999999999997</v>
       </c>
       <c r="K403" t="n">
-        <v>-14.28571428571432</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L403" t="n">
         <v>16.74</v>
@@ -21015,7 +21037,7 @@
         <v>33.69999999999997</v>
       </c>
       <c r="K405" t="n">
-        <v>-6.666666666666525</v>
+        <v>0</v>
       </c>
       <c r="L405" t="n">
         <v>16.75</v>
@@ -21066,7 +21088,7 @@
         <v>33.79999999999997</v>
       </c>
       <c r="K406" t="n">
-        <v>-6.666666666666793</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L406" t="n">
         <v>16.76</v>
@@ -21117,7 +21139,7 @@
         <v>33.99999999999997</v>
       </c>
       <c r="K407" t="n">
-        <v>-12.5</v>
+        <v>-25</v>
       </c>
       <c r="L407" t="n">
         <v>16.75</v>
@@ -21168,7 +21190,7 @@
         <v>33.99999999999997</v>
       </c>
       <c r="K408" t="n">
-        <v>-20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>16.73</v>
@@ -21219,7 +21241,7 @@
         <v>34.09999999999997</v>
       </c>
       <c r="K409" t="n">
-        <v>-6.666666666666556</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L409" t="n">
         <v>16.74</v>
@@ -21270,7 +21292,7 @@
         <v>34.09999999999997</v>
       </c>
       <c r="K410" t="n">
-        <v>-6.666666666666556</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L410" t="n">
         <v>16.75</v>
@@ -21321,7 +21343,7 @@
         <v>34.09999999999997</v>
       </c>
       <c r="K411" t="n">
-        <v>-14.28571428571432</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L411" t="n">
         <v>16.76</v>
@@ -21372,7 +21394,7 @@
         <v>34.09999999999997</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L412" t="n">
         <v>16.77</v>
@@ -21423,7 +21445,7 @@
         <v>34.19999999999997</v>
       </c>
       <c r="K413" t="n">
-        <v>7.692307692307546</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L413" t="n">
         <v>16.8</v>
@@ -21474,7 +21496,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K414" t="n">
-        <v>23.07692307692318</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L414" t="n">
         <v>16.82</v>
@@ -21525,7 +21547,7 @@
         <v>34.29999999999998</v>
       </c>
       <c r="K415" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L415" t="n">
         <v>16.84</v>
@@ -21576,7 +21598,7 @@
         <v>34.39999999999998</v>
       </c>
       <c r="K416" t="n">
-        <v>23.07692307692318</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L416" t="n">
         <v>16.86</v>
@@ -21627,7 +21649,7 @@
         <v>34.39999999999998</v>
       </c>
       <c r="K417" t="n">
-        <v>23.07692307692318</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L417" t="n">
         <v>16.9</v>
@@ -21678,7 +21700,7 @@
         <v>34.59999999999998</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L418" t="n">
         <v>16.92000000000001</v>
@@ -21729,7 +21751,7 @@
         <v>34.69999999999998</v>
       </c>
       <c r="K419" t="n">
-        <v>23.07692307692306</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L419" t="n">
         <v>16.94</v>
@@ -21780,7 +21802,7 @@
         <v>34.79999999999998</v>
       </c>
       <c r="K420" t="n">
-        <v>28.57142857142861</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L420" t="n">
         <v>16.97</v>
@@ -21831,7 +21853,7 @@
         <v>35.09999999999998</v>
       </c>
       <c r="K421" t="n">
-        <v>5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>16.97</v>
@@ -21882,7 +21904,7 @@
         <v>35.19999999999998</v>
       </c>
       <c r="K422" t="n">
-        <v>0</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L422" t="n">
         <v>16.96</v>
@@ -21933,7 +21955,7 @@
         <v>35.29999999999998</v>
       </c>
       <c r="K423" t="n">
-        <v>11.111111111111</v>
+        <v>-19.99999999999979</v>
       </c>
       <c r="L423" t="n">
         <v>16.95</v>
@@ -21984,7 +22006,7 @@
         <v>35.49999999999999</v>
       </c>
       <c r="K424" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>16.95</v>
@@ -22035,7 +22057,7 @@
         <v>35.69999999999999</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L425" t="n">
         <v>16.93</v>
@@ -22086,7 +22108,7 @@
         <v>35.69999999999999</v>
       </c>
       <c r="K426" t="n">
-        <v>-5.263157894736675</v>
+        <v>-23.07692307692293</v>
       </c>
       <c r="L426" t="n">
         <v>16.9</v>
@@ -22137,7 +22159,7 @@
         <v>35.79999999999998</v>
       </c>
       <c r="K427" t="n">
-        <v>11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>16.88</v>
@@ -22188,7 +22210,7 @@
         <v>35.79999999999998</v>
       </c>
       <c r="K428" t="n">
-        <v>11.111111111111</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L428" t="n">
         <v>16.88</v>
@@ -22239,7 +22261,7 @@
         <v>35.89999999999998</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>-27.27272727272748</v>
       </c>
       <c r="L429" t="n">
         <v>16.86000000000001</v>
@@ -22341,7 +22363,7 @@
         <v>35.89999999999998</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L431" t="n">
         <v>16.83000000000001</v>
@@ -22443,7 +22465,7 @@
         <v>35.99999999999998</v>
       </c>
       <c r="K433" t="n">
-        <v>-11.11111111111104</v>
+        <v>-60.00000000000099</v>
       </c>
       <c r="L433" t="n">
         <v>16.83000000000001</v>
@@ -22494,7 +22516,7 @@
         <v>36.09999999999998</v>
       </c>
       <c r="K434" t="n">
-        <v>-11.11111111111104</v>
+        <v>0</v>
       </c>
       <c r="L434" t="n">
         <v>16.81000000000001</v>
@@ -22545,7 +22567,7 @@
         <v>36.19999999999998</v>
       </c>
       <c r="K435" t="n">
-        <v>-15.78947368421052</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L435" t="n">
         <v>16.8</v>
@@ -22596,7 +22618,7 @@
         <v>36.29999999999998</v>
       </c>
       <c r="K436" t="n">
-        <v>-26.31578947368413</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L436" t="n">
         <v>16.78</v>
@@ -22647,7 +22669,7 @@
         <v>36.49999999999999</v>
       </c>
       <c r="K437" t="n">
-        <v>-14.28571428571426</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L437" t="n">
         <v>16.77</v>
@@ -22698,7 +22720,7 @@
         <v>36.59999999999999</v>
       </c>
       <c r="K438" t="n">
-        <v>-9.999999999999929</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L438" t="n">
         <v>16.75</v>
@@ -22749,7 +22771,7 @@
         <v>36.69999999999999</v>
       </c>
       <c r="K439" t="n">
-        <v>-9.999999999999929</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>16.75</v>
@@ -22800,7 +22822,7 @@
         <v>36.69999999999999</v>
       </c>
       <c r="K440" t="n">
-        <v>-15.78947368421052</v>
+        <v>0</v>
       </c>
       <c r="L440" t="n">
         <v>16.75</v>
@@ -22851,7 +22873,7 @@
         <v>36.79999999999998</v>
       </c>
       <c r="K441" t="n">
-        <v>5.882352941176335</v>
+        <v>11.1111111111108</v>
       </c>
       <c r="L441" t="n">
         <v>16.76</v>
@@ -22902,7 +22924,7 @@
         <v>36.89999999999998</v>
       </c>
       <c r="K442" t="n">
-        <v>5.882352941176569</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L442" t="n">
         <v>16.76</v>
@@ -23004,7 +23026,7 @@
         <v>36.99999999999997</v>
       </c>
       <c r="K444" t="n">
-        <v>-6.666666666666825</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L444" t="n">
         <v>16.78</v>
@@ -23055,7 +23077,7 @@
         <v>36.99999999999997</v>
       </c>
       <c r="K445" t="n">
-        <v>7.692307692307629</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L445" t="n">
         <v>16.8</v>
@@ -23106,7 +23128,7 @@
         <v>36.99999999999997</v>
       </c>
       <c r="K446" t="n">
-        <v>7.692307692307629</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L446" t="n">
         <v>16.83000000000001</v>
@@ -23157,7 +23179,7 @@
         <v>37.09999999999997</v>
       </c>
       <c r="K447" t="n">
-        <v>-7.692307692307629</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L447" t="n">
         <v>16.83000000000001</v>
@@ -23208,7 +23230,7 @@
         <v>37.19999999999997</v>
       </c>
       <c r="K448" t="n">
-        <v>-14.28571428571439</v>
+        <v>-20.00000000000114</v>
       </c>
       <c r="L448" t="n">
         <v>16.83000000000001</v>
@@ -23310,7 +23332,7 @@
         <v>37.49999999999997</v>
       </c>
       <c r="K450" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L450" t="n">
         <v>16.81000000000001</v>
@@ -23361,7 +23383,7 @@
         <v>37.59999999999997</v>
       </c>
       <c r="K451" t="n">
-        <v>-5.882352941176594</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L451" t="n">
         <v>16.79</v>
@@ -23412,7 +23434,7 @@
         <v>37.59999999999997</v>
       </c>
       <c r="K452" t="n">
-        <v>-5.882352941176594</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L452" t="n">
         <v>16.78</v>
@@ -23463,7 +23485,7 @@
         <v>37.59999999999997</v>
       </c>
       <c r="K453" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L453" t="n">
         <v>16.77</v>
@@ -23514,7 +23536,7 @@
         <v>37.59999999999997</v>
       </c>
       <c r="K454" t="n">
-        <v>-6.666666666666825</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L454" t="n">
         <v>16.75</v>
@@ -23565,7 +23587,7 @@
         <v>37.69999999999996</v>
       </c>
       <c r="K455" t="n">
-        <v>-6.666666666666619</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L455" t="n">
         <v>16.72</v>
@@ -23616,7 +23638,7 @@
         <v>37.69999999999996</v>
       </c>
       <c r="K456" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L456" t="n">
         <v>16.68999999999999</v>
@@ -23667,7 +23689,7 @@
         <v>37.69999999999996</v>
       </c>
       <c r="K457" t="n">
-        <v>-16.66666666666696</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L457" t="n">
         <v>16.66999999999999</v>
@@ -23718,7 +23740,7 @@
         <v>37.69999999999996</v>
       </c>
       <c r="K458" t="n">
-        <v>-9.09090909090912</v>
+        <v>-50.00000000000089</v>
       </c>
       <c r="L458" t="n">
         <v>16.65999999999999</v>
@@ -23769,7 +23791,7 @@
         <v>37.79999999999996</v>
       </c>
       <c r="K459" t="n">
-        <v>-27.27272727272801</v>
+        <v>-33.33333333333491</v>
       </c>
       <c r="L459" t="n">
         <v>16.62999999999999</v>
@@ -23820,7 +23842,7 @@
         <v>37.79999999999996</v>
       </c>
       <c r="K460" t="n">
-        <v>-27.27272727272801</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L460" t="n">
         <v>16.61999999999999</v>
@@ -23871,7 +23893,7 @@
         <v>37.79999999999996</v>
       </c>
       <c r="K461" t="n">
-        <v>-40.00000000000071</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L461" t="n">
         <v>16.59999999999999</v>
@@ -23922,7 +23944,7 @@
         <v>37.89999999999996</v>
       </c>
       <c r="K462" t="n">
-        <v>-20.00000000000021</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L462" t="n">
         <v>16.59</v>
@@ -23973,7 +23995,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K463" t="n">
-        <v>-27.27272727272765</v>
+        <v>-50</v>
       </c>
       <c r="L463" t="n">
         <v>16.57</v>
@@ -24024,7 +24046,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K464" t="n">
-        <v>-40.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L464" t="n">
         <v>16.55</v>
@@ -24075,7 +24097,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K465" t="n">
-        <v>-40.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L465" t="n">
         <v>16.54</v>
@@ -24126,7 +24148,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K466" t="n">
-        <v>-40.00000000000014</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>16.53</v>
@@ -24177,7 +24199,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K467" t="n">
-        <v>-33.33333333333346</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>16.52</v>
@@ -24228,7 +24250,7 @@
         <v>37.99999999999996</v>
       </c>
       <c r="K468" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>16.51</v>
@@ -24279,7 +24301,7 @@
         <v>38.09999999999997</v>
       </c>
       <c r="K469" t="n">
-        <v>-25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L469" t="n">
         <v>16.52</v>
@@ -24330,7 +24352,7 @@
         <v>38.19999999999996</v>
       </c>
       <c r="K470" t="n">
-        <v>14.28571428571421</v>
+        <v>50</v>
       </c>
       <c r="L470" t="n">
         <v>16.54</v>
@@ -24381,7 +24403,7 @@
         <v>38.39999999999996</v>
       </c>
       <c r="K471" t="n">
-        <v>-25</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L471" t="n">
         <v>16.54</v>
@@ -24432,7 +24454,7 @@
         <v>38.39999999999996</v>
       </c>
       <c r="K472" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>16.53</v>
@@ -24483,7 +24505,7 @@
         <v>38.49999999999996</v>
       </c>
       <c r="K473" t="n">
-        <v>-11.11111111111089</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L473" t="n">
         <v>16.54</v>
@@ -24534,7 +24556,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K474" t="n">
-        <v>-19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>16.54</v>
@@ -24585,7 +24607,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K475" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L475" t="n">
         <v>16.54</v>
@@ -24636,7 +24658,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K476" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>16.54</v>
@@ -24687,7 +24709,7 @@
         <v>38.59999999999997</v>
       </c>
       <c r="K477" t="n">
-        <v>-11.1111111111112</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>16.54</v>
@@ -24738,7 +24760,7 @@
         <v>38.69999999999997</v>
       </c>
       <c r="K478" t="n">
-        <v>-20.00000000000014</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L478" t="n">
         <v>16.53</v>
@@ -24789,7 +24811,7 @@
         <v>38.79999999999997</v>
       </c>
       <c r="K479" t="n">
-        <v>-19.99999999999979</v>
+        <v>-66.66666666666549</v>
       </c>
       <c r="L479" t="n">
         <v>16.5</v>
@@ -24840,7 +24862,7 @@
         <v>38.89999999999996</v>
       </c>
       <c r="K480" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L480" t="n">
         <v>16.47</v>
@@ -24891,7 +24913,7 @@
         <v>38.89999999999996</v>
       </c>
       <c r="K481" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L481" t="n">
         <v>16.46</v>
@@ -24942,7 +24964,7 @@
         <v>38.99999999999996</v>
       </c>
       <c r="K482" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L482" t="n">
         <v>16.46</v>
@@ -24993,7 +25015,7 @@
         <v>39.09999999999997</v>
       </c>
       <c r="K483" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L483" t="n">
         <v>16.44</v>
@@ -25044,7 +25066,7 @@
         <v>39.09999999999997</v>
       </c>
       <c r="K484" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L484" t="n">
         <v>16.43</v>
@@ -25197,7 +25219,7 @@
         <v>39.19999999999997</v>
       </c>
       <c r="K487" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L487" t="n">
         <v>16.43</v>
@@ -25248,7 +25270,7 @@
         <v>39.19999999999997</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L488" t="n">
         <v>16.44</v>
@@ -25299,7 +25321,7 @@
         <v>39.29999999999997</v>
       </c>
       <c r="K489" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L489" t="n">
         <v>16.47</v>
@@ -25350,7 +25372,7 @@
         <v>39.39999999999997</v>
       </c>
       <c r="K490" t="n">
-        <v>-16.66666666666647</v>
+        <v>20</v>
       </c>
       <c r="L490" t="n">
         <v>16.48</v>
@@ -25401,7 +25423,7 @@
         <v>39.49999999999997</v>
       </c>
       <c r="K491" t="n">
-        <v>9.09090909090915</v>
+        <v>20</v>
       </c>
       <c r="L491" t="n">
         <v>16.5</v>
@@ -25452,7 +25474,7 @@
         <v>39.49999999999997</v>
       </c>
       <c r="K492" t="n">
-        <v>9.09090909090915</v>
+        <v>50</v>
       </c>
       <c r="L492" t="n">
         <v>16.51</v>
@@ -25503,7 +25525,7 @@
         <v>39.49999999999997</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L493" t="n">
         <v>16.53</v>
@@ -25554,7 +25576,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K494" t="n">
-        <v>19.99999999999993</v>
+        <v>50</v>
       </c>
       <c r="L494" t="n">
         <v>16.56</v>
@@ -25605,7 +25627,7 @@
         <v>39.59999999999997</v>
       </c>
       <c r="K495" t="n">
-        <v>19.99999999999993</v>
+        <v>50</v>
       </c>
       <c r="L495" t="n">
         <v>16.57999999999999</v>
@@ -25656,7 +25678,7 @@
         <v>39.69999999999996</v>
       </c>
       <c r="K496" t="n">
-        <v>9.090909090909268</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L496" t="n">
         <v>16.59</v>
@@ -25707,7 +25729,7 @@
         <v>39.79999999999995</v>
       </c>
       <c r="K497" t="n">
-        <v>16.66666666666677</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L497" t="n">
         <v>16.60999999999999</v>
@@ -25758,7 +25780,7 @@
         <v>39.79999999999995</v>
       </c>
       <c r="K498" t="n">
-        <v>27.27272727272765</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L498" t="n">
         <v>16.62999999999999</v>
@@ -25809,7 +25831,7 @@
         <v>39.79999999999995</v>
       </c>
       <c r="K499" t="n">
-        <v>40.00000000000043</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L499" t="n">
         <v>16.63999999999999</v>
@@ -25860,7 +25882,7 @@
         <v>39.89999999999995</v>
       </c>
       <c r="K500" t="n">
-        <v>20.00000000000057</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>16.64999999999999</v>
@@ -25911,7 +25933,7 @@
         <v>39.99999999999994</v>
       </c>
       <c r="K501" t="n">
-        <v>27.27272727272783</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L501" t="n">
         <v>16.65999999999999</v>
@@ -25962,7 +25984,7 @@
         <v>39.99999999999994</v>
       </c>
       <c r="K502" t="n">
-        <v>20.00000000000036</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L502" t="n">
         <v>16.66999999999999</v>
@@ -26013,7 +26035,7 @@
         <v>39.99999999999994</v>
       </c>
       <c r="K503" t="n">
-        <v>33.33333333333425</v>
+        <v>0</v>
       </c>
       <c r="L503" t="n">
         <v>16.67999999999999</v>
@@ -26064,7 +26086,7 @@
         <v>40.09999999999994</v>
       </c>
       <c r="K504" t="n">
-        <v>40.00000000000107</v>
+        <v>20.00000000000114</v>
       </c>
       <c r="L504" t="n">
         <v>16.68999999999999</v>
@@ -26115,7 +26137,7 @@
         <v>40.19999999999995</v>
       </c>
       <c r="K505" t="n">
-        <v>20.00000000000036</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L505" t="n">
         <v>16.68999999999999</v>
@@ -26166,7 +26188,7 @@
         <v>40.29999999999994</v>
       </c>
       <c r="K506" t="n">
-        <v>9.090909090909443</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L506" t="n">
         <v>16.68999999999999</v>
@@ -26217,7 +26239,7 @@
         <v>40.29999999999994</v>
       </c>
       <c r="K507" t="n">
-        <v>9.090909090909443</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L507" t="n">
         <v>16.67999999999999</v>
@@ -26268,7 +26290,7 @@
         <v>40.39999999999994</v>
       </c>
       <c r="K508" t="n">
-        <v>0</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L508" t="n">
         <v>16.65999999999999</v>
@@ -26319,7 +26341,7 @@
         <v>40.59999999999994</v>
       </c>
       <c r="K509" t="n">
-        <v>7.692307692307714</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L509" t="n">
         <v>16.65999999999999</v>
@@ -26370,7 +26392,7 @@
         <v>40.99999999999994</v>
       </c>
       <c r="K510" t="n">
-        <v>-12.50000000000022</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L510" t="n">
         <v>16.63</v>
@@ -26421,7 +26443,7 @@
         <v>41.19999999999993</v>
       </c>
       <c r="K511" t="n">
-        <v>-5.882352941176692</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L511" t="n">
         <v>16.61</v>
@@ -26472,7 +26494,7 @@
         <v>41.19999999999993</v>
       </c>
       <c r="K512" t="n">
-        <v>-5.882352941176692</v>
+        <v>-16.66666666666677</v>
       </c>
       <c r="L512" t="n">
         <v>16.59</v>
@@ -26523,7 +26545,7 @@
         <v>41.29999999999993</v>
       </c>
       <c r="K513" t="n">
-        <v>-11.11111111111151</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L513" t="n">
         <v>16.56</v>
@@ -26574,7 +26596,7 @@
         <v>41.29999999999993</v>
       </c>
       <c r="K514" t="n">
-        <v>-17.64705882352979</v>
+        <v>-27.27272727272765</v>
       </c>
       <c r="L514" t="n">
         <v>16.52</v>
@@ -26625,7 +26647,7 @@
         <v>41.39999999999993</v>
       </c>
       <c r="K515" t="n">
-        <v>-11.11111111111127</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L515" t="n">
         <v>16.5</v>
@@ -26676,7 +26698,7 @@
         <v>41.39999999999993</v>
       </c>
       <c r="K516" t="n">
-        <v>-5.882352941176642</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L516" t="n">
         <v>16.49</v>
@@ -26727,7 +26749,7 @@
         <v>41.49999999999994</v>
       </c>
       <c r="K517" t="n">
-        <v>-17.64705882352965</v>
+        <v>-9.090909090909268</v>
       </c>
       <c r="L517" t="n">
         <v>16.47</v>
@@ -26778,7 +26800,7 @@
         <v>41.59999999999994</v>
       </c>
       <c r="K518" t="n">
-        <v>-22.22222222222235</v>
+        <v>-39.99999999999986</v>
       </c>
       <c r="L518" t="n">
         <v>16.45</v>
@@ -26829,7 +26851,7 @@
         <v>41.59999999999994</v>
       </c>
       <c r="K519" t="n">
-        <v>-22.22222222222235</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>16.41</v>
@@ -26880,7 +26902,7 @@
         <v>41.59999999999994</v>
       </c>
       <c r="K520" t="n">
-        <v>-17.64705882352957</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L520" t="n">
         <v>16.41</v>
@@ -26931,7 +26953,7 @@
         <v>41.69999999999994</v>
       </c>
       <c r="K521" t="n">
-        <v>-29.41176470588243</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L521" t="n">
         <v>16.38</v>
@@ -26982,7 +27004,7 @@
         <v>41.69999999999994</v>
       </c>
       <c r="K522" t="n">
-        <v>-29.41176470588243</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L522" t="n">
         <v>16.35</v>
@@ -27033,7 +27055,7 @@
         <v>41.69999999999994</v>
       </c>
       <c r="K523" t="n">
-        <v>-29.41176470588243</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L523" t="n">
         <v>16.33</v>
@@ -27084,7 +27106,7 @@
         <v>41.79999999999994</v>
       </c>
       <c r="K524" t="n">
-        <v>-41.17647058823535</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L524" t="n">
         <v>16.3</v>
@@ -27135,7 +27157,7 @@
         <v>41.79999999999994</v>
       </c>
       <c r="K525" t="n">
-        <v>-37.5</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L525" t="n">
         <v>16.26</v>
@@ -27186,7 +27208,7 @@
         <v>41.89999999999993</v>
       </c>
       <c r="K526" t="n">
-        <v>-25.00000000000022</v>
+        <v>-50</v>
       </c>
       <c r="L526" t="n">
         <v>16.23</v>
@@ -27237,7 +27259,7 @@
         <v>42.09999999999994</v>
       </c>
       <c r="K527" t="n">
-        <v>-11.11111111111129</v>
+        <v>19.99999999999957</v>
       </c>
       <c r="L527" t="n">
         <v>16.23</v>
@@ -27288,7 +27310,7 @@
         <v>42.29999999999994</v>
       </c>
       <c r="K528" t="n">
-        <v>-15.78947368421058</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L528" t="n">
         <v>16.22</v>
@@ -27339,7 +27361,7 @@
         <v>42.29999999999994</v>
       </c>
       <c r="K529" t="n">
-        <v>-29.41176470588231</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L529" t="n">
         <v>16.20999999999999</v>
@@ -27390,7 +27412,7 @@
         <v>42.39999999999994</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L530" t="n">
         <v>16.20999999999999</v>
@@ -27441,7 +27463,7 @@
         <v>42.49999999999994</v>
       </c>
       <c r="K531" t="n">
-        <v>-23.07692307692293</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>16.20999999999999</v>
@@ -27492,7 +27514,7 @@
         <v>42.59999999999994</v>
       </c>
       <c r="K532" t="n">
-        <v>-28.57142857142835</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L532" t="n">
         <v>16.2</v>
@@ -27543,7 +27565,7 @@
         <v>42.69999999999994</v>
       </c>
       <c r="K533" t="n">
-        <v>-28.57142857142835</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L533" t="n">
         <v>16.18</v>
@@ -27594,7 +27616,7 @@
         <v>42.69999999999994</v>
       </c>
       <c r="K534" t="n">
-        <v>-28.57142857142835</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L534" t="n">
         <v>16.16999999999999</v>
@@ -27645,7 +27667,7 @@
         <v>42.79999999999994</v>
       </c>
       <c r="K535" t="n">
-        <v>-28.57142857142835</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L535" t="n">
         <v>16.16999999999999</v>
@@ -27696,7 +27718,7 @@
         <v>42.99999999999994</v>
       </c>
       <c r="K536" t="n">
-        <v>-37.49999999999978</v>
+        <v>-55.555555555555</v>
       </c>
       <c r="L536" t="n">
         <v>16.14</v>
@@ -27747,7 +27769,7 @@
         <v>42.99999999999994</v>
       </c>
       <c r="K537" t="n">
-        <v>-33.33333333333306</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L537" t="n">
         <v>16.09</v>
@@ -27798,7 +27820,7 @@
         <v>42.99999999999994</v>
       </c>
       <c r="K538" t="n">
-        <v>-28.57142857142848</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L538" t="n">
         <v>16.06</v>
@@ -27849,7 +27871,7 @@
         <v>43.09999999999994</v>
       </c>
       <c r="K539" t="n">
-        <v>-19.99999999999995</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L539" t="n">
         <v>16.04</v>
@@ -27900,7 +27922,7 @@
         <v>43.29999999999994</v>
       </c>
       <c r="K540" t="n">
-        <v>-5.882352941176544</v>
+        <v>0</v>
       </c>
       <c r="L540" t="n">
         <v>16.03</v>
@@ -27951,7 +27973,7 @@
         <v>43.29999999999994</v>
       </c>
       <c r="K541" t="n">
-        <v>0</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L541" t="n">
         <v>16.03</v>
@@ -28002,7 +28024,7 @@
         <v>43.39999999999993</v>
       </c>
       <c r="K542" t="n">
-        <v>-5.88235294117636</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L542" t="n">
         <v>16.03</v>
@@ -28053,7 +28075,7 @@
         <v>43.39999999999993</v>
       </c>
       <c r="K543" t="n">
-        <v>-5.88235294117636</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L543" t="n">
         <v>16.04</v>
@@ -28104,7 +28126,7 @@
         <v>43.49999999999993</v>
       </c>
       <c r="K544" t="n">
-        <v>5.882352941176385</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L544" t="n">
         <v>16.06</v>
@@ -28155,7 +28177,7 @@
         <v>43.59999999999992</v>
       </c>
       <c r="K545" t="n">
-        <v>0</v>
+        <v>33.33333333333461</v>
       </c>
       <c r="L545" t="n">
         <v>16.06</v>
@@ -28206,7 +28228,7 @@
         <v>43.69999999999992</v>
       </c>
       <c r="K546" t="n">
-        <v>0</v>
+        <v>42.85714285714427</v>
       </c>
       <c r="L546" t="n">
         <v>16.09</v>
@@ -28257,7 +28279,7 @@
         <v>43.69999999999992</v>
       </c>
       <c r="K547" t="n">
-        <v>-12.50000000000011</v>
+        <v>42.85714285714427</v>
       </c>
       <c r="L547" t="n">
         <v>16.11999999999999</v>
@@ -28308,7 +28330,7 @@
         <v>43.79999999999991</v>
       </c>
       <c r="K548" t="n">
-        <v>-6.666666666666651</v>
+        <v>14.28571428571516</v>
       </c>
       <c r="L548" t="n">
         <v>16.13999999999999</v>
@@ -28359,7 +28381,7 @@
         <v>43.79999999999991</v>
       </c>
       <c r="K549" t="n">
-        <v>-6.666666666666651</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L549" t="n">
         <v>16.14999999999999</v>
@@ -28410,7 +28432,7 @@
         <v>43.89999999999991</v>
       </c>
       <c r="K550" t="n">
-        <v>-20.00000000000043</v>
+        <v>-33.33333333333471</v>
       </c>
       <c r="L550" t="n">
         <v>16.12999999999999</v>
@@ -28461,7 +28483,7 @@
         <v>43.99999999999991</v>
       </c>
       <c r="K551" t="n">
-        <v>-20.00000000000031</v>
+        <v>-33.33333333333461</v>
       </c>
       <c r="L551" t="n">
         <v>16.09999999999999</v>
@@ -28512,7 +28534,7 @@
         <v>43.99999999999991</v>
       </c>
       <c r="K552" t="n">
-        <v>-14.28571428571459</v>
+        <v>-33.33333333333461</v>
       </c>
       <c r="L552" t="n">
         <v>16.07999999999999</v>
@@ -28563,7 +28585,7 @@
         <v>44.09999999999992</v>
       </c>
       <c r="K553" t="n">
-        <v>-14.28571428571447</v>
+        <v>-66.66666666666785</v>
       </c>
       <c r="L553" t="n">
         <v>16.05</v>
@@ -28614,7 +28636,7 @@
         <v>44.19999999999992</v>
       </c>
       <c r="K554" t="n">
-        <v>-6.666666666666737</v>
+        <v>-33.33333333333383</v>
       </c>
       <c r="L554" t="n">
         <v>16.02</v>
@@ -28665,7 +28687,7 @@
         <v>44.29999999999992</v>
       </c>
       <c r="K555" t="n">
-        <v>-20.00000000000033</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L555" t="n">
         <v>15.99</v>
@@ -28716,7 +28738,7 @@
         <v>44.39999999999992</v>
       </c>
       <c r="K556" t="n">
-        <v>0</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L556" t="n">
         <v>15.96</v>
@@ -28767,7 +28789,7 @@
         <v>44.39999999999992</v>
       </c>
       <c r="K557" t="n">
-        <v>0</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L557" t="n">
         <v>15.93</v>
@@ -28818,7 +28840,7 @@
         <v>44.39999999999992</v>
       </c>
       <c r="K558" t="n">
-        <v>0</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L558" t="n">
         <v>15.91000000000001</v>
@@ -28920,7 +28942,7 @@
         <v>44.49999999999992</v>
       </c>
       <c r="K560" t="n">
-        <v>-16.66666666666686</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L560" t="n">
         <v>15.90000000000001</v>
@@ -28971,7 +28993,7 @@
         <v>44.49999999999992</v>
       </c>
       <c r="K561" t="n">
-        <v>-16.66666666666686</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L561" t="n">
         <v>15.91000000000001</v>
@@ -29022,7 +29044,7 @@
         <v>44.59999999999992</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>59.99999999999929</v>
       </c>
       <c r="L562" t="n">
         <v>15.93</v>
@@ -29073,7 +29095,7 @@
         <v>44.69999999999992</v>
       </c>
       <c r="K563" t="n">
-        <v>7.692307692307629</v>
+        <v>59.99999999999979</v>
       </c>
       <c r="L563" t="n">
         <v>15.97</v>
@@ -29124,7 +29146,7 @@
         <v>44.69999999999992</v>
       </c>
       <c r="K564" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L564" t="n">
         <v>16</v>
@@ -29175,7 +29197,7 @@
         <v>44.79999999999991</v>
       </c>
       <c r="K565" t="n">
-        <v>0</v>
+        <v>50.00000000000134</v>
       </c>
       <c r="L565" t="n">
         <v>16.03</v>
@@ -29226,7 +29248,7 @@
         <v>44.89999999999991</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>60.0000000000015</v>
       </c>
       <c r="L566" t="n">
         <v>16.06</v>
@@ -29277,7 +29299,7 @@
         <v>44.89999999999991</v>
       </c>
       <c r="K567" t="n">
-        <v>0</v>
+        <v>60.0000000000015</v>
       </c>
       <c r="L567" t="n">
         <v>16.09</v>
@@ -29328,7 +29350,7 @@
         <v>44.99999999999991</v>
       </c>
       <c r="K568" t="n">
-        <v>16.66666666666666</v>
+        <v>60.00000000000185</v>
       </c>
       <c r="L568" t="n">
         <v>16.13</v>
@@ -29379,7 +29401,7 @@
         <v>45.09999999999991</v>
       </c>
       <c r="K569" t="n">
-        <v>7.692307692307546</v>
+        <v>33.33333333333393</v>
       </c>
       <c r="L569" t="n">
         <v>16.15</v>
@@ -29481,7 +29503,7 @@
         <v>45.39999999999991</v>
       </c>
       <c r="K571" t="n">
-        <v>0</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L571" t="n">
         <v>16.13999999999999</v>
@@ -29532,7 +29554,7 @@
         <v>45.39999999999991</v>
       </c>
       <c r="K572" t="n">
-        <v>0</v>
+        <v>-42.85714285714297</v>
       </c>
       <c r="L572" t="n">
         <v>16.12</v>
@@ -29583,7 +29605,7 @@
         <v>45.49999999999991</v>
       </c>
       <c r="K573" t="n">
-        <v>14.28571428571425</v>
+        <v>-25</v>
       </c>
       <c r="L573" t="n">
         <v>16.1</v>
@@ -29634,7 +29656,7 @@
         <v>45.49999999999991</v>
       </c>
       <c r="K574" t="n">
-        <v>7.692307692307682</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L574" t="n">
         <v>16.08</v>
@@ -29685,7 +29707,7 @@
         <v>45.59999999999992</v>
       </c>
       <c r="K575" t="n">
-        <v>7.692307692307682</v>
+        <v>-42.85714285714209</v>
       </c>
       <c r="L575" t="n">
         <v>16.06</v>
@@ -29736,7 +29758,7 @@
         <v>45.59999999999992</v>
       </c>
       <c r="K576" t="n">
-        <v>0</v>
+        <v>-42.85714285714209</v>
       </c>
       <c r="L576" t="n">
         <v>16.03</v>
@@ -29787,7 +29809,7 @@
         <v>45.69999999999992</v>
       </c>
       <c r="K577" t="n">
-        <v>7.692307692307682</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L577" t="n">
         <v>16.01</v>
@@ -29838,7 +29860,7 @@
         <v>46.09999999999992</v>
       </c>
       <c r="K578" t="n">
-        <v>29.41176470588232</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L578" t="n">
         <v>16.02</v>
@@ -29889,7 +29911,7 @@
         <v>46.39999999999991</v>
       </c>
       <c r="K579" t="n">
-        <v>5.26315789473694</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L579" t="n">
         <v>16.01</v>
@@ -29940,7 +29962,7 @@
         <v>46.49999999999991</v>
       </c>
       <c r="K580" t="n">
-        <v>10</v>
+        <v>27.27272727272714</v>
       </c>
       <c r="L580" t="n">
         <v>16.03</v>
@@ -29991,7 +30013,7 @@
         <v>46.69999999999992</v>
       </c>
       <c r="K581" t="n">
-        <v>0</v>
+        <v>7.69230769230764</v>
       </c>
       <c r="L581" t="n">
         <v>16.04</v>
@@ -30042,7 +30064,7 @@
         <v>46.69999999999992</v>
       </c>
       <c r="K582" t="n">
-        <v>-4.761904761904842</v>
+        <v>0</v>
       </c>
       <c r="L582" t="n">
         <v>16.05</v>
@@ -30093,7 +30115,7 @@
         <v>46.69999999999992</v>
       </c>
       <c r="K583" t="n">
-        <v>-9.999999999999964</v>
+        <v>0</v>
       </c>
       <c r="L583" t="n">
         <v>16.05</v>
@@ -30144,7 +30166,7 @@
         <v>46.79999999999992</v>
       </c>
       <c r="K584" t="n">
-        <v>-14.28571428571423</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>16.04</v>
@@ -30195,7 +30217,7 @@
         <v>46.89999999999992</v>
       </c>
       <c r="K585" t="n">
-        <v>-4.76190476190481</v>
+        <v>7.69230769230764</v>
       </c>
       <c r="L585" t="n">
         <v>16.05</v>
@@ -30246,7 +30268,7 @@
         <v>46.99999999999992</v>
       </c>
       <c r="K586" t="n">
-        <v>-14.28571428571413</v>
+        <v>-7.69230769230764</v>
       </c>
       <c r="L586" t="n">
         <v>16.05</v>
@@ -30297,7 +30319,7 @@
         <v>47.09999999999992</v>
       </c>
       <c r="K587" t="n">
-        <v>-9.090909090908989</v>
+        <v>-39.99999999999957</v>
       </c>
       <c r="L587" t="n">
         <v>16.05</v>
@@ -30348,7 +30370,7 @@
         <v>47.29999999999993</v>
       </c>
       <c r="K588" t="n">
-        <v>-4.347826086956549</v>
+        <v>11.11111111111072</v>
       </c>
       <c r="L588" t="n">
         <v>16.03</v>
@@ -30399,7 +30421,7 @@
         <v>47.49999999999993</v>
       </c>
       <c r="K589" t="n">
-        <v>-8.333333333333234</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L589" t="n">
         <v>16.02</v>
@@ -30501,7 +30523,7 @@
         <v>47.59999999999993</v>
       </c>
       <c r="K591" t="n">
-        <v>0</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L591" t="n">
         <v>15.99</v>
@@ -30552,7 +30574,7 @@
         <v>47.59999999999993</v>
       </c>
       <c r="K592" t="n">
-        <v>0</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L592" t="n">
         <v>15.98</v>
@@ -30603,7 +30625,7 @@
         <v>47.59999999999993</v>
       </c>
       <c r="K593" t="n">
-        <v>-4.761904761904709</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>15.97</v>
@@ -30654,7 +30676,7 @@
         <v>47.59999999999993</v>
       </c>
       <c r="K594" t="n">
-        <v>-4.761904761904709</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L594" t="n">
         <v>15.97</v>
@@ -30705,7 +30727,7 @@
         <v>47.69999999999993</v>
       </c>
       <c r="K595" t="n">
-        <v>4.761904761904709</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L595" t="n">
         <v>15.97</v>
@@ -30756,7 +30778,7 @@
         <v>47.69999999999993</v>
       </c>
       <c r="K596" t="n">
-        <v>4.761904761904709</v>
+        <v>0</v>
       </c>
       <c r="L596" t="n">
         <v>15.98</v>
@@ -30807,7 +30829,7 @@
         <v>47.89999999999993</v>
       </c>
       <c r="K597" t="n">
-        <v>-9.090909090908989</v>
+        <v>-66.66666666666549</v>
       </c>
       <c r="L597" t="n">
         <v>15.96</v>
@@ -30858,7 +30880,7 @@
         <v>47.89999999999993</v>
       </c>
       <c r="K598" t="n">
-        <v>-33.33333333333287</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L598" t="n">
         <v>15.92000000000001</v>
@@ -30909,7 +30931,7 @@
         <v>47.89999999999993</v>
       </c>
       <c r="K599" t="n">
-        <v>-19.99999999999976</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L599" t="n">
         <v>15.90000000000001</v>
@@ -30960,7 +30982,7 @@
         <v>47.99999999999994</v>
       </c>
       <c r="K600" t="n">
-        <v>-19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L600" t="n">
         <v>15.89000000000001</v>
@@ -31011,7 +31033,7 @@
         <v>48.09999999999994</v>
       </c>
       <c r="K601" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L601" t="n">
         <v>15.90000000000001</v>
@@ -31062,7 +31084,7 @@
         <v>48.09999999999994</v>
       </c>
       <c r="K602" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L602" t="n">
         <v>15.91000000000001</v>
@@ -31113,7 +31135,7 @@
         <v>48.19999999999994</v>
       </c>
       <c r="K603" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L603" t="n">
         <v>15.93</v>
@@ -31164,7 +31186,7 @@
         <v>48.19999999999994</v>
       </c>
       <c r="K604" t="n">
-        <v>14.28571428571416</v>
+        <v>20</v>
       </c>
       <c r="L604" t="n">
         <v>15.95</v>
@@ -31215,7 +31237,7 @@
         <v>48.19999999999994</v>
       </c>
       <c r="K605" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L605" t="n">
         <v>15.96</v>
@@ -31266,7 +31288,7 @@
         <v>48.29999999999994</v>
       </c>
       <c r="K606" t="n">
-        <v>23.07692307692267</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L606" t="n">
         <v>15.98</v>
@@ -31317,7 +31339,7 @@
         <v>48.49999999999994</v>
       </c>
       <c r="K607" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L607" t="n">
         <v>16</v>
@@ -31368,7 +31390,7 @@
         <v>48.59999999999994</v>
       </c>
       <c r="K608" t="n">
-        <v>-7.692307692307419</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L608" t="n">
         <v>16.03</v>
@@ -31419,7 +31441,7 @@
         <v>48.69999999999995</v>
       </c>
       <c r="K609" t="n">
-        <v>16.66666666666637</v>
+        <v>42.85714285714209</v>
       </c>
       <c r="L609" t="n">
         <v>16.07</v>
@@ -31470,7 +31492,7 @@
         <v>48.79999999999994</v>
       </c>
       <c r="K610" t="n">
-        <v>7.692307692307734</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L610" t="n">
         <v>16.09</v>
@@ -31521,7 +31543,7 @@
         <v>49.09999999999994</v>
       </c>
       <c r="K611" t="n">
-        <v>33.33333333333306</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L611" t="n">
         <v>16.13</v>
@@ -31572,7 +31594,7 @@
         <v>49.19999999999994</v>
       </c>
       <c r="K612" t="n">
-        <v>37.49999999999978</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L612" t="n">
         <v>16.18</v>
@@ -31623,7 +31645,7 @@
         <v>49.19999999999994</v>
       </c>
       <c r="K613" t="n">
-        <v>37.49999999999978</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L613" t="n">
         <v>16.22</v>
@@ -31674,7 +31696,7 @@
         <v>49.39999999999993</v>
       </c>
       <c r="K614" t="n">
-        <v>22.22222222222219</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L614" t="n">
         <v>16.24</v>
@@ -31725,7 +31747,7 @@
         <v>49.39999999999993</v>
       </c>
       <c r="K615" t="n">
-        <v>17.64705882352942</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L615" t="n">
         <v>16.26</v>
@@ -31776,7 +31798,7 @@
         <v>49.39999999999993</v>
       </c>
       <c r="K616" t="n">
-        <v>17.64705882352942</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L616" t="n">
         <v>16.27</v>
@@ -31827,7 +31849,7 @@
         <v>49.49999999999993</v>
       </c>
       <c r="K617" t="n">
-        <v>37.5</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L617" t="n">
         <v>16.31</v>
@@ -31878,7 +31900,7 @@
         <v>49.69999999999993</v>
       </c>
       <c r="K618" t="n">
-        <v>44.44444444444456</v>
+        <v>40.00000000000078</v>
       </c>
       <c r="L618" t="n">
         <v>16.36</v>
@@ -31929,7 +31951,7 @@
         <v>49.99999999999993</v>
       </c>
       <c r="K619" t="n">
-        <v>23.80952380952387</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L619" t="n">
         <v>16.37</v>
@@ -31980,7 +32002,7 @@
         <v>49.99999999999993</v>
       </c>
       <c r="K620" t="n">
-        <v>20.00000000000009</v>
+        <v>-11.11111111111098</v>
       </c>
       <c r="L620" t="n">
         <v>16.39000000000001</v>
@@ -32031,7 +32053,7 @@
         <v>50.19999999999993</v>
       </c>
       <c r="K621" t="n">
-        <v>23.80952380952387</v>
+        <v>0</v>
       </c>
       <c r="L621" t="n">
         <v>16.40000000000001</v>
@@ -32082,7 +32104,7 @@
         <v>50.29999999999993</v>
       </c>
       <c r="K622" t="n">
-        <v>27.27272727272739</v>
+        <v>9.090909090909268</v>
       </c>
       <c r="L622" t="n">
         <v>16.41</v>
@@ -32133,7 +32155,7 @@
         <v>50.29999999999993</v>
       </c>
       <c r="K623" t="n">
-        <v>23.80952380952387</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L623" t="n">
         <v>16.42000000000001</v>
@@ -32184,7 +32206,7 @@
         <v>50.49999999999994</v>
       </c>
       <c r="K624" t="n">
-        <v>13.04347826086946</v>
+        <v>9.090909090908886</v>
       </c>
       <c r="L624" t="n">
         <v>16.43</v>
@@ -32235,7 +32257,7 @@
         <v>50.69999999999994</v>
       </c>
       <c r="K625" t="n">
-        <v>20</v>
+        <v>23.07692307692306</v>
       </c>
       <c r="L625" t="n">
         <v>16.46</v>
@@ -32337,7 +32359,7 @@
         <v>50.69999999999994</v>
       </c>
       <c r="K627" t="n">
-        <v>27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L627" t="n">
         <v>16.51</v>
@@ -32388,7 +32410,7 @@
         <v>50.99999999999994</v>
       </c>
       <c r="K628" t="n">
-        <v>8.333333333333309</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>16.48</v>
@@ -32439,7 +32461,7 @@
         <v>50.99999999999994</v>
       </c>
       <c r="K629" t="n">
-        <v>4.347826086956589</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>16.48</v>
@@ -32490,7 +32512,7 @@
         <v>51.09999999999994</v>
       </c>
       <c r="K630" t="n">
-        <v>4.347826086956421</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L630" t="n">
         <v>16.47</v>
@@ -32541,7 +32563,7 @@
         <v>51.09999999999994</v>
       </c>
       <c r="K631" t="n">
-        <v>-9.999999999999929</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L631" t="n">
         <v>16.44</v>
@@ -32592,7 +32614,7 @@
         <v>51.39999999999995</v>
       </c>
       <c r="K632" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L632" t="n">
         <v>16.43</v>
@@ -32643,7 +32665,7 @@
         <v>51.59999999999995</v>
       </c>
       <c r="K633" t="n">
-        <v>-8.333333333333259</v>
+        <v>-9.090909090908768</v>
       </c>
       <c r="L633" t="n">
         <v>16.4</v>
@@ -32694,7 +32716,7 @@
         <v>51.59999999999995</v>
       </c>
       <c r="K634" t="n">
-        <v>0</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L634" t="n">
         <v>16.39</v>
@@ -32745,7 +32767,7 @@
         <v>51.69999999999995</v>
       </c>
       <c r="K635" t="n">
-        <v>4.347826086956408</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L635" t="n">
         <v>16.37</v>
@@ -32796,7 +32818,7 @@
         <v>51.89999999999995</v>
       </c>
       <c r="K636" t="n">
-        <v>-4.000000000000034</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L636" t="n">
         <v>16.33</v>
@@ -32847,7 +32869,7 @@
         <v>51.89999999999995</v>
       </c>
       <c r="K637" t="n">
-        <v>-8.333333333333234</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L637" t="n">
         <v>16.29</v>
@@ -32898,7 +32920,7 @@
         <v>51.89999999999995</v>
       </c>
       <c r="K638" t="n">
-        <v>-18.18181818181814</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L638" t="n">
         <v>16.28</v>
@@ -32949,7 +32971,7 @@
         <v>51.89999999999995</v>
       </c>
       <c r="K639" t="n">
-        <v>-5.263157894736862</v>
+        <v>0</v>
       </c>
       <c r="L639" t="n">
         <v>16.27</v>
@@ -33000,7 +33022,7 @@
         <v>51.99999999999994</v>
       </c>
       <c r="K640" t="n">
-        <v>-9.999999999999893</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L640" t="n">
         <v>16.26</v>
@@ -33051,7 +33073,7 @@
         <v>52.09999999999994</v>
       </c>
       <c r="K641" t="n">
-        <v>-26.31578947368403</v>
+        <v>-71.42857142857186</v>
       </c>
       <c r="L641" t="n">
         <v>16.24</v>
@@ -33102,7 +33124,7 @@
         <v>52.19999999999995</v>
       </c>
       <c r="K642" t="n">
-        <v>-26.31578947368403</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L642" t="n">
         <v>16.2</v>
@@ -33153,7 +33175,7 @@
         <v>52.29999999999995</v>
       </c>
       <c r="K643" t="n">
-        <v>-29.99999999999986</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L643" t="n">
         <v>16.16999999999999</v>
@@ -33204,7 +33226,7 @@
         <v>52.29999999999995</v>
       </c>
       <c r="K644" t="n">
-        <v>-22.222222222222</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L644" t="n">
         <v>16.13999999999999</v>
@@ -33255,7 +33277,7 @@
         <v>52.39999999999995</v>
       </c>
       <c r="K645" t="n">
-        <v>-29.41176470588218</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L645" t="n">
         <v>16.10999999999999</v>
@@ -33306,7 +33328,7 @@
         <v>52.39999999999995</v>
       </c>
       <c r="K646" t="n">
-        <v>-29.41176470588218</v>
+        <v>-19.99999999999957</v>
       </c>
       <c r="L646" t="n">
         <v>16.09999999999999</v>
@@ -33357,7 +33379,7 @@
         <v>52.49999999999994</v>
       </c>
       <c r="K647" t="n">
-        <v>-22.22222222222229</v>
+        <v>0</v>
       </c>
       <c r="L647" t="n">
         <v>16.09999999999999</v>
@@ -33408,7 +33430,7 @@
         <v>52.49999999999994</v>
       </c>
       <c r="K648" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L648" t="n">
         <v>16.09999999999999</v>
@@ -33459,7 +33481,7 @@
         <v>52.59999999999994</v>
       </c>
       <c r="K649" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L649" t="n">
         <v>16.09</v>
@@ -33510,7 +33532,7 @@
         <v>52.59999999999994</v>
       </c>
       <c r="K650" t="n">
-        <v>-6.666666666666556</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L650" t="n">
         <v>16.09</v>
@@ -33561,7 +33583,7 @@
         <v>52.69999999999994</v>
       </c>
       <c r="K651" t="n">
-        <v>-12.5</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L651" t="n">
         <v>16.09</v>
@@ -33612,7 +33634,7 @@
         <v>52.79999999999994</v>
       </c>
       <c r="K652" t="n">
-        <v>-28.57142857142864</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L652" t="n">
         <v>16.09</v>
@@ -33663,7 +33685,7 @@
         <v>52.89999999999994</v>
       </c>
       <c r="K653" t="n">
-        <v>-23.07692307692331</v>
+        <v>0</v>
       </c>
       <c r="L653" t="n">
         <v>16.09</v>
@@ -33714,7 +33736,7 @@
         <v>53.09999999999994</v>
       </c>
       <c r="K654" t="n">
-        <v>-6.666666666666825</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L654" t="n">
         <v>16.10999999999999</v>
@@ -33765,7 +33787,7 @@
         <v>53.09999999999994</v>
       </c>
       <c r="K655" t="n">
-        <v>-14.28571428571432</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L655" t="n">
         <v>16.11999999999999</v>
@@ -33918,7 +33940,7 @@
         <v>53.19999999999993</v>
       </c>
       <c r="K658" t="n">
-        <v>-7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L658" t="n">
         <v>16.11999999999999</v>
@@ -33969,7 +33991,7 @@
         <v>53.19999999999993</v>
       </c>
       <c r="K659" t="n">
-        <v>-7.692307692307629</v>
+        <v>0</v>
       </c>
       <c r="L659" t="n">
         <v>16.11999999999999</v>
@@ -34020,7 +34042,7 @@
         <v>53.19999999999993</v>
       </c>
       <c r="K660" t="n">
-        <v>0</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L660" t="n">
         <v>16.11999999999999</v>
@@ -34071,7 +34093,7 @@
         <v>53.19999999999993</v>
       </c>
       <c r="K661" t="n">
-        <v>9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L661" t="n">
         <v>16.12999999999999</v>
@@ -34122,7 +34144,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K662" t="n">
-        <v>-9.090909090909326</v>
+        <v>0</v>
       </c>
       <c r="L662" t="n">
         <v>16.11999999999999</v>
@@ -34173,7 +34195,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K663" t="n">
-        <v>0</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L663" t="n">
         <v>16.11999999999999</v>
@@ -34224,7 +34246,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K664" t="n">
-        <v>0</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L664" t="n">
         <v>16.09999999999999</v>
@@ -34275,7 +34297,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K665" t="n">
-        <v>-11.11111111111146</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L665" t="n">
         <v>16.07999999999999</v>
@@ -34326,7 +34348,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K666" t="n">
-        <v>-11.11111111111146</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L666" t="n">
         <v>16.06</v>
@@ -34377,7 +34399,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K667" t="n">
-        <v>-25.00000000000022</v>
+        <v>-100</v>
       </c>
       <c r="L667" t="n">
         <v>16.04</v>
@@ -34428,7 +34450,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K668" t="n">
-        <v>-25.00000000000022</v>
+        <v>-100</v>
       </c>
       <c r="L668" t="n">
         <v>16.03</v>
@@ -34479,7 +34501,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K669" t="n">
-        <v>-14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L669" t="n">
         <v>16.02</v>
@@ -34530,7 +34552,7 @@
         <v>53.29999999999993</v>
       </c>
       <c r="K670" t="n">
-        <v>-14.28571428571458</v>
+        <v>-100</v>
       </c>
       <c r="L670" t="n">
         <v>16.01</v>
@@ -34580,9 +34602,7 @@
       <c r="J671" t="n">
         <v>53.29999999999993</v>
       </c>
-      <c r="K671" t="n">
-        <v>0</v>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>16</v>
       </c>
@@ -34631,9 +34651,7 @@
       <c r="J672" t="n">
         <v>53.29999999999993</v>
       </c>
-      <c r="K672" t="n">
-        <v>-20.00000000000057</v>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>16</v>
       </c>
@@ -34682,9 +34700,7 @@
       <c r="J673" t="n">
         <v>53.29999999999993</v>
       </c>
-      <c r="K673" t="n">
-        <v>0</v>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>16</v>
       </c>
@@ -34734,7 +34750,7 @@
         <v>53.39999999999993</v>
       </c>
       <c r="K674" t="n">
-        <v>-33.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L674" t="n">
         <v>16.01</v>
@@ -34785,7 +34801,7 @@
         <v>53.49999999999994</v>
       </c>
       <c r="K675" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L675" t="n">
         <v>16.01</v>
@@ -34836,7 +34852,7 @@
         <v>53.49999999999994</v>
       </c>
       <c r="K676" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L676" t="n">
         <v>16.01</v>
@@ -34887,7 +34903,7 @@
         <v>53.59999999999994</v>
       </c>
       <c r="K677" t="n">
-        <v>-59.99999999999979</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L677" t="n">
         <v>16</v>
@@ -34938,7 +34954,7 @@
         <v>53.69999999999994</v>
       </c>
       <c r="K678" t="n">
-        <v>-59.99999999999929</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L678" t="n">
         <v>15.98</v>
@@ -34989,7 +35005,7 @@
         <v>53.69999999999994</v>
       </c>
       <c r="K679" t="n">
-        <v>-59.99999999999929</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L679" t="n">
         <v>15.96</v>
@@ -35040,7 +35056,7 @@
         <v>53.69999999999994</v>
       </c>
       <c r="K680" t="n">
-        <v>-59.99999999999929</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L680" t="n">
         <v>15.94</v>
@@ -35091,7 +35107,7 @@
         <v>53.79999999999994</v>
       </c>
       <c r="K681" t="n">
-        <v>-66.66666666666607</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L681" t="n">
         <v>15.91</v>
@@ -35193,7 +35209,7 @@
         <v>53.79999999999994</v>
       </c>
       <c r="K683" t="n">
-        <v>-59.99999999999929</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L683" t="n">
         <v>15.85</v>
@@ -35244,7 +35260,7 @@
         <v>53.89999999999994</v>
       </c>
       <c r="K684" t="n">
-        <v>-33.33333333333275</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L684" t="n">
         <v>15.82</v>
@@ -35295,7 +35311,7 @@
         <v>53.89999999999994</v>
       </c>
       <c r="K685" t="n">
-        <v>-33.33333333333275</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L685" t="n">
         <v>15.8</v>
@@ -35346,7 +35362,7 @@
         <v>53.99999999999994</v>
       </c>
       <c r="K686" t="n">
-        <v>-42.85714285714235</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L686" t="n">
         <v>15.77</v>
@@ -35397,7 +35413,7 @@
         <v>53.99999999999994</v>
       </c>
       <c r="K687" t="n">
-        <v>-42.85714285714235</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L687" t="n">
         <v>15.75</v>
@@ -35448,7 +35464,7 @@
         <v>53.99999999999994</v>
       </c>
       <c r="K688" t="n">
-        <v>-42.85714285714235</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L688" t="n">
         <v>15.74</v>
@@ -35499,7 +35515,7 @@
         <v>54.09999999999994</v>
       </c>
       <c r="K689" t="n">
-        <v>-24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L689" t="n">
         <v>15.74</v>
@@ -35550,7 +35566,7 @@
         <v>54.19999999999995</v>
       </c>
       <c r="K690" t="n">
-        <v>-33.33333333333294</v>
+        <v>0</v>
       </c>
       <c r="L690" t="n">
         <v>15.73</v>
@@ -35601,7 +35617,7 @@
         <v>54.29999999999995</v>
       </c>
       <c r="K691" t="n">
-        <v>-39.99999999999947</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L691" t="n">
         <v>15.72</v>
@@ -35656,7 +35672,7 @@
         <v>54.39999999999995</v>
       </c>
       <c r="K692" t="n">
-        <v>-27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L692" t="n">
         <v>15.72</v>
@@ -35713,7 +35729,7 @@
         <v>54.39999999999995</v>
       </c>
       <c r="K693" t="n">
-        <v>-27.27272727272695</v>
+        <v>-20</v>
       </c>
       <c r="L693" t="n">
         <v>15.72</v>
@@ -35772,7 +35788,7 @@
         <v>54.49999999999995</v>
       </c>
       <c r="K694" t="n">
-        <v>-27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L694" t="n">
         <v>15.72</v>
@@ -35835,7 +35851,7 @@
         <v>54.49999999999995</v>
       </c>
       <c r="K695" t="n">
-        <v>-19.99999999999964</v>
+        <v>20</v>
       </c>
       <c r="L695" t="n">
         <v>15.72</v>
@@ -35898,7 +35914,7 @@
         <v>54.59999999999995</v>
       </c>
       <c r="K696" t="n">
-        <v>-27.27272727272695</v>
+        <v>0</v>
       </c>
       <c r="L696" t="n">
         <v>15.72</v>
@@ -35961,7 +35977,7 @@
         <v>54.59999999999995</v>
       </c>
       <c r="K697" t="n">
-        <v>-19.99999999999982</v>
+        <v>0</v>
       </c>
       <c r="L697" t="n">
         <v>15.72</v>
@@ -36024,7 +36040,7 @@
         <v>54.79999999999995</v>
       </c>
       <c r="K698" t="n">
-        <v>-27.27272727272695</v>
+        <v>-42.85714285714235</v>
       </c>
       <c r="L698" t="n">
         <v>15.7</v>
@@ -36085,7 +36101,7 @@
         <v>54.79999999999995</v>
       </c>
       <c r="K699" t="n">
-        <v>-27.27272727272695</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L699" t="n">
         <v>15.67</v>
@@ -36146,7 +36162,7 @@
         <v>54.89999999999996</v>
       </c>
       <c r="K700" t="n">
-        <v>-33.33333333333289</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L700" t="n">
         <v>15.64</v>
@@ -36205,7 +36221,7 @@
         <v>54.99999999999996</v>
       </c>
       <c r="K701" t="n">
-        <v>-16.66666666666637</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L701" t="n">
         <v>15.63</v>
@@ -36268,7 +36284,7 @@
         <v>55.19999999999996</v>
       </c>
       <c r="K702" t="n">
-        <v>-28.57142857142806</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L702" t="n">
         <v>15.59</v>
@@ -36329,7 +36345,7 @@
         <v>55.39999999999996</v>
       </c>
       <c r="K703" t="n">
-        <v>-12.49999999999978</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L703" t="n">
         <v>15.57</v>
@@ -36388,7 +36404,7 @@
         <v>55.39999999999996</v>
       </c>
       <c r="K704" t="n">
-        <v>-19.99999999999976</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L704" t="n">
         <v>15.54</v>
@@ -36451,7 +36467,7 @@
         <v>55.59999999999997</v>
       </c>
       <c r="K705" t="n">
-        <v>-29.41176470588194</v>
+        <v>-39.99999999999929</v>
       </c>
       <c r="L705" t="n">
         <v>15.49</v>
@@ -36514,7 +36530,7 @@
         <v>55.79999999999997</v>
       </c>
       <c r="K706" t="n">
-        <v>-11.11111111111091</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L706" t="n">
         <v>15.47</v>
@@ -36577,7 +36593,7 @@
         <v>55.79999999999997</v>
       </c>
       <c r="K707" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L707" t="n">
         <v>15.45</v>
@@ -36640,7 +36656,7 @@
         <v>55.89999999999997</v>
       </c>
       <c r="K708" t="n">
-        <v>-15.78947368421024</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L708" t="n">
         <v>15.44</v>
@@ -36703,7 +36719,7 @@
         <v>55.99999999999997</v>
       </c>
       <c r="K709" t="n">
-        <v>-15.78947368421034</v>
+        <v>9.090909090908928</v>
       </c>
       <c r="L709" t="n">
         <v>15.44</v>
@@ -36764,7 +36780,7 @@
         <v>56.19999999999997</v>
       </c>
       <c r="K710" t="n">
-        <v>-19.99999999999964</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L710" t="n">
         <v>15.43</v>
@@ -36825,7 +36841,7 @@
         <v>56.29999999999998</v>
       </c>
       <c r="K711" t="n">
-        <v>-9.999999999999822</v>
+        <v>9.090909090908928</v>
       </c>
       <c r="L711" t="n">
         <v>15.42000000000001</v>
@@ -36884,7 +36900,7 @@
         <v>56.29999999999998</v>
       </c>
       <c r="K712" t="n">
-        <v>-15.78947368421024</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L712" t="n">
         <v>15.43</v>
@@ -36943,7 +36959,7 @@
         <v>56.29999999999998</v>
       </c>
       <c r="K713" t="n">
-        <v>-15.78947368421024</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L713" t="n">
         <v>15.42000000000001</v>

--- a/BackTest/2019-10-24 BackTest LBA.xlsx
+++ b/BackTest/2019-10-24 BackTest LBA.xlsx
@@ -1011,13 +1011,17 @@
         <v>15.67833333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" t="n">
+        <v>15</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1046,14 +1050,22 @@
         <v>15.66333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>15</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1081,14 +1093,22 @@
         <v>15.64666666666667</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>15</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1151,13 +1171,17 @@
         <v>15.60333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.8</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1186,14 +1210,22 @@
         <v>15.58333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1221,14 +1253,22 @@
         <v>15.56333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1256,13 +1296,17 @@
         <v>15.53833333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14.9</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1291,14 +1335,22 @@
         <v>15.51333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,12 +1384,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="K27" t="n">
         <v>14.9</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1371,14 +1427,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="K28" t="n">
         <v>14.9</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1457,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="K30" t="n">
         <v>14.9</v>
@@ -1500,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="K31" t="n">
         <v>14.9</v>
@@ -1580,14 +1636,12 @@
         <v>15.38</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>15</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>14.9</v>
       </c>
@@ -1623,14 +1677,12 @@
         <v>15.36333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>14.9</v>
       </c>
@@ -1666,14 +1718,12 @@
         <v>15.34666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>15</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>14.9</v>
       </c>
@@ -1709,14 +1759,12 @@
         <v>15.33</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>15</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>14.9</v>
       </c>
@@ -1752,14 +1800,12 @@
         <v>15.31166666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>14.9</v>
       </c>
@@ -1795,14 +1841,12 @@
         <v>15.29166666666666</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>14.9</v>
       </c>
@@ -1838,14 +1882,12 @@
         <v>15.27833333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>15</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>14.9</v>
       </c>
@@ -1881,14 +1923,12 @@
         <v>15.25833333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>14.9</v>
       </c>
@@ -1924,14 +1964,12 @@
         <v>15.23833333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>14.9</v>
       </c>
@@ -1967,14 +2005,12 @@
         <v>15.21666666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>14.9</v>
       </c>
@@ -2010,14 +2046,12 @@
         <v>15.19666666666666</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>14.9</v>
       </c>
@@ -2053,14 +2087,12 @@
         <v>15.18666666666666</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>14.9</v>
       </c>
@@ -2096,14 +2128,12 @@
         <v>15.165</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>14.9</v>
       </c>
@@ -2139,14 +2169,12 @@
         <v>15.14666666666666</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>14.9</v>
       </c>
@@ -2182,14 +2210,12 @@
         <v>15.13166666666666</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>14.9</v>
       </c>
@@ -2225,14 +2251,12 @@
         <v>15.11166666666666</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>14.9</v>
       </c>
@@ -2268,14 +2292,12 @@
         <v>15.10166666666666</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>14.9</v>
       </c>
@@ -2311,14 +2333,12 @@
         <v>15.09333333333333</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>14.9</v>
       </c>
@@ -2354,14 +2374,12 @@
         <v>15.08666666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>14.9</v>
       </c>
@@ -2397,14 +2415,12 @@
         <v>15.07999999999999</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>14.9</v>
       </c>
@@ -2440,14 +2456,12 @@
         <v>15.07666666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>14.9</v>
       </c>
@@ -2483,14 +2497,12 @@
         <v>15.07333333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>15</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>14.9</v>
       </c>
@@ -2526,14 +2538,12 @@
         <v>15.06999999999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>14.9</v>
       </c>
@@ -2569,14 +2579,12 @@
         <v>15.06333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>14.9</v>
       </c>
@@ -2612,14 +2620,12 @@
         <v>15.05666666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>14.9</v>
       </c>
@@ -2655,14 +2661,12 @@
         <v>15.05166666666666</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>14.9</v>
       </c>
@@ -2698,14 +2702,12 @@
         <v>15.04333333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>14.9</v>
       </c>
@@ -4630,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
@@ -4638,11 +4640,11 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>1.149362416107383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4674,10 +4676,16 @@
         <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>1.135939597315436</v>
       </c>
     </row>
     <row r="108">
@@ -4741,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4776,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4811,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest LBA.xlsx
+++ b/BackTest/2019-10-24 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2789807.005948918</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2789807.005948918</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2686480.354948918</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2686480.354948918</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2456304.491448918</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2454989.857348918</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2251978.012648918</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -3058,14 +3058,10 @@
         <v>2111358.74574892</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
@@ -3095,895 +3091,789 @@
         <v>2111358.74574892</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>14.9</v>
       </c>
-      <c r="J82" t="n">
+      <c r="C83" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4730.1841</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2111358.74574892</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C84" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F84" t="n">
+        <v>11260</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2111358.74574892</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C85" t="n">
         <v>14.8</v>
       </c>
-      <c r="K82" t="inlineStr">
+      <c r="D85" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>27570</v>
+      </c>
+      <c r="G85" t="n">
+        <v>2083788.74574892</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C86" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D86" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>24430</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2108218.74574892</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C87" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D87" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8949.4341</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2108218.74574892</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C88" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>15</v>
+      </c>
+      <c r="E88" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F88" t="n">
+        <v>31074.7669</v>
+      </c>
+      <c r="G88" t="n">
+        <v>2108218.74574892</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>15</v>
+      </c>
+      <c r="C89" t="n">
+        <v>15</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>15</v>
+      </c>
+      <c r="F89" t="n">
+        <v>5691.8666</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2113910.61234892</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C90" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1931.1355</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2111979.47684892</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1898.5985</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2111979.47684892</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>15</v>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="n">
+        <v>15</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15</v>
+      </c>
+      <c r="F92" t="n">
+        <v>260.6</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2112240.07684892</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C93" t="n">
+        <v>15</v>
+      </c>
+      <c r="D93" t="n">
+        <v>15</v>
+      </c>
+      <c r="E93" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F93" t="n">
+        <v>96502.5065</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2112240.07684892</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>15</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>15</v>
+      </c>
+      <c r="E94" t="n">
+        <v>15</v>
+      </c>
+      <c r="F94" t="n">
+        <v>337.7631</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2112240.07684892</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>15</v>
+      </c>
+      <c r="C95" t="n">
+        <v>15</v>
+      </c>
+      <c r="D95" t="n">
+        <v>15</v>
+      </c>
+      <c r="E95" t="n">
+        <v>15</v>
+      </c>
+      <c r="F95" t="n">
+        <v>126999.6666</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2112240.07684892</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1998.8736</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2110241.20324892</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C97" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F97" t="n">
+        <v>10897.2665</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2110241.20324892</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>15</v>
+      </c>
+      <c r="C98" t="n">
+        <v>15</v>
+      </c>
+      <c r="D98" t="n">
+        <v>15</v>
+      </c>
+      <c r="E98" t="n">
+        <v>15</v>
+      </c>
+      <c r="F98" t="n">
+        <v>166.6666</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2110407.86984892</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>14.9</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C99" t="n">
         <v>14.9</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D99" t="n">
         <v>14.9</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E99" t="n">
         <v>14.9</v>
       </c>
-      <c r="F83" t="n">
-        <v>4730.1841</v>
-      </c>
-      <c r="G83" t="n">
-        <v>2111358.74574892</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="F99" t="n">
+        <v>2989.9322</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2107417.93764892</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>15</v>
+      </c>
+      <c r="J99" t="n">
         <v>14.9</v>
       </c>
-      <c r="J83" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
         <v>14.9</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C100" t="n">
         <v>14.9</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D100" t="n">
         <v>14.9</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E100" t="n">
         <v>14.9</v>
       </c>
-      <c r="F84" t="n">
-        <v>11260</v>
-      </c>
-      <c r="G84" t="n">
-        <v>2111358.74574892</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="F100" t="n">
+        <v>44353.0423</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2107417.93764892</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
         <v>14.9</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J100" t="n">
         <v>14.9</v>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
         <v>14.9</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C101" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F101" t="n">
+        <v>28107.821</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2107417.93764892</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J101" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C102" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>53726.3185</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2107417.93764892</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="J102" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
         <v>14.8</v>
       </c>
-      <c r="D85" t="n">
+      <c r="C103" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D103" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>44043.8508</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2063374.08684892</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
         <v>14.9</v>
       </c>
-      <c r="E85" t="n">
+      <c r="J103" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
         <v>14.8</v>
       </c>
-      <c r="F85" t="n">
-        <v>27570</v>
-      </c>
-      <c r="G85" t="n">
-        <v>2083788.74574892</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
+      <c r="C104" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>88534.60920000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1974839.47764892</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J104" t="n">
         <v>14.9</v>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C86" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D86" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E86" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F86" t="n">
-        <v>24430</v>
-      </c>
-      <c r="G86" t="n">
-        <v>2108218.74574892</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C87" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D87" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E87" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F87" t="n">
-        <v>8949.4341</v>
-      </c>
-      <c r="G87" t="n">
-        <v>2108218.74574892</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C88" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D88" t="n">
-        <v>15</v>
-      </c>
-      <c r="E88" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F88" t="n">
-        <v>31074.7669</v>
-      </c>
-      <c r="G88" t="n">
-        <v>2108218.74574892</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>15</v>
-      </c>
-      <c r="C89" t="n">
-        <v>15</v>
-      </c>
-      <c r="D89" t="n">
-        <v>15</v>
-      </c>
-      <c r="E89" t="n">
-        <v>15</v>
-      </c>
-      <c r="F89" t="n">
-        <v>5691.8666</v>
-      </c>
-      <c r="G89" t="n">
-        <v>2113910.61234892</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C90" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D90" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E90" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1931.1355</v>
-      </c>
-      <c r="G90" t="n">
-        <v>2111979.47684892</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C91" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D91" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E91" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1898.5985</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2111979.47684892</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>15</v>
-      </c>
-      <c r="C92" t="n">
-        <v>15</v>
-      </c>
-      <c r="D92" t="n">
-        <v>15</v>
-      </c>
-      <c r="E92" t="n">
-        <v>15</v>
-      </c>
-      <c r="F92" t="n">
-        <v>260.6</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2112240.07684892</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C93" t="n">
-        <v>15</v>
-      </c>
-      <c r="D93" t="n">
-        <v>15</v>
-      </c>
-      <c r="E93" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F93" t="n">
-        <v>96502.5065</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2112240.07684892</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>15</v>
-      </c>
-      <c r="C94" t="n">
-        <v>15</v>
-      </c>
-      <c r="D94" t="n">
-        <v>15</v>
-      </c>
-      <c r="E94" t="n">
-        <v>15</v>
-      </c>
-      <c r="F94" t="n">
-        <v>337.7631</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2112240.07684892</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>15</v>
-      </c>
-      <c r="C95" t="n">
-        <v>15</v>
-      </c>
-      <c r="D95" t="n">
-        <v>15</v>
-      </c>
-      <c r="E95" t="n">
-        <v>15</v>
-      </c>
-      <c r="F95" t="n">
-        <v>126999.6666</v>
-      </c>
-      <c r="G95" t="n">
-        <v>2112240.07684892</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C96" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D96" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E96" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1998.8736</v>
-      </c>
-      <c r="G96" t="n">
-        <v>2110241.20324892</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C97" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D97" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E97" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F97" t="n">
-        <v>10897.2665</v>
-      </c>
-      <c r="G97" t="n">
-        <v>2110241.20324892</v>
-      </c>
-      <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>15</v>
-      </c>
-      <c r="C98" t="n">
-        <v>15</v>
-      </c>
-      <c r="D98" t="n">
-        <v>15</v>
-      </c>
-      <c r="E98" t="n">
-        <v>15</v>
-      </c>
-      <c r="F98" t="n">
-        <v>166.6666</v>
-      </c>
-      <c r="G98" t="n">
-        <v>2110407.86984892</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J98" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C99" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E99" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>2989.9322</v>
-      </c>
-      <c r="G99" t="n">
-        <v>2107417.93764892</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C100" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D100" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>44353.0423</v>
-      </c>
-      <c r="G100" t="n">
-        <v>2107417.93764892</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J100" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F101" t="n">
-        <v>28107.821</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2107417.93764892</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F102" t="n">
-        <v>53726.3185</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2107417.93764892</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C103" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D103" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E103" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F103" t="n">
-        <v>44043.8508</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2063374.08684892</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C104" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D104" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E104" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F104" t="n">
-        <v>88534.60920000001</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1974839.47764892</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J104" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4012,7 +3902,7 @@
         <v>2183752.59264892</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>14.7</v>
@@ -4053,7 +3943,7 @@
         <v>2183708.59264892</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>14.8</v>
@@ -4094,7 +3984,7 @@
         <v>2183708.59264892</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>14.7</v>
@@ -4135,7 +4025,7 @@
         <v>2185069.13694892</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>14.7</v>
@@ -4176,7 +4066,7 @@
         <v>2185069.13694892</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>14.9</v>
@@ -4217,7 +4107,7 @@
         <v>2167026.01304892</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>14.9</v>
@@ -4258,7 +4148,7 @@
         <v>2167026.01304892</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>14.8</v>
@@ -4299,7 +4189,7 @@
         <v>2468525.94584892</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>14.8</v>
@@ -4340,7 +4230,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>14.9</v>
@@ -4381,7 +4271,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>15.1</v>
@@ -4422,7 +4312,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>15.1</v>
@@ -4463,7 +4353,7 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>15.1</v>
@@ -4504,7 +4394,7 @@
         <v>2816141.14154892</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>15.1</v>
@@ -4545,9 +4435,11 @@
         <v>2757180.89334892</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J118" t="n">
         <v>14.9</v>
       </c>
@@ -4584,11 +4476,9 @@
         <v>2822158.72354892</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>14.9</v>
       </c>
@@ -4742,9 +4632,11 @@
         <v>3072099.950623604</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J123" t="n">
         <v>14.9</v>
       </c>
@@ -4781,9 +4673,11 @@
         <v>3094337.28124892</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J124" t="n">
         <v>14.9</v>
       </c>
@@ -4820,9 +4714,11 @@
         <v>3094309.68914892</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J125" t="n">
         <v>14.9</v>
       </c>
@@ -4859,7 +4755,7 @@
         <v>3130394.87234892</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>15.6</v>
@@ -4900,7 +4796,7 @@
         <v>3188841.68184892</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>15.9</v>
@@ -6540,7 +6436,7 @@
         <v>4316112.33172662</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
@@ -6548,15 +6444,13 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.135939597315436</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1.155405405405405</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6581,11 +6475,17 @@
         <v>4316112.33172662</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6617,8 +6517,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6650,8 +6556,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6683,8 +6595,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6716,8 +6634,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6746,15 +6670,23 @@
         <v>3597875.09842662</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>1.109093959731544</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.155405405405405</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6779,7 +6711,7 @@
         <v>3597875.09842662</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6977,7 +6909,7 @@
         <v>3024517.478326619</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7010,7 +6942,7 @@
         <v>3133562.270526619</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7043,7 +6975,7 @@
         <v>3133562.270526619</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7076,7 +7008,7 @@
         <v>3170792.160526619</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7109,7 +7041,7 @@
         <v>3165792.160526619</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7142,7 +7074,7 @@
         <v>3013200.361326619</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7175,7 +7107,7 @@
         <v>3013200.361326619</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7208,7 +7140,7 @@
         <v>3013200.361326619</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7241,7 +7173,7 @@
         <v>3011534.995626619</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7274,7 +7206,7 @@
         <v>3435420.067726619</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7307,7 +7239,7 @@
         <v>3295520.067726619</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7340,7 +7272,7 @@
         <v>3310140.067726619</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7373,7 +7305,7 @@
         <v>3310140.067726619</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7406,7 +7338,7 @@
         <v>3308429.179326619</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7439,7 +7371,7 @@
         <v>3408429.179326619</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7472,7 +7404,7 @@
         <v>3408429.179326619</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7505,7 +7437,7 @@
         <v>3408429.179326619</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7571,7 +7503,7 @@
         <v>3150485.244126619</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7604,7 +7536,7 @@
         <v>3150485.244126619</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7637,7 +7569,7 @@
         <v>3100310.661026619</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7670,7 +7602,7 @@
         <v>2932781.52932662</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7703,7 +7635,7 @@
         <v>2426203.45002662</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7736,7 +7668,7 @@
         <v>2426203.45002662</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7769,7 +7701,7 @@
         <v>2492740.59172662</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7802,7 +7734,7 @@
         <v>2482263.73642662</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7835,7 +7767,7 @@
         <v>2482263.73642662</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -9419,7 +9351,7 @@
         <v>2477879.78302662</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9452,7 +9384,7 @@
         <v>2477631.58532662</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9485,7 +9417,7 @@
         <v>2538192.16252662</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9518,7 +9450,7 @@
         <v>2538192.16252662</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9551,7 +9483,7 @@
         <v>2538192.16252662</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9683,7 +9615,7 @@
         <v>3661366.53702662</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9716,7 +9648,7 @@
         <v>3910406.109715</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9749,7 +9681,7 @@
         <v>3743542.903815</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9782,7 +9714,7 @@
         <v>4074659.263015</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9815,7 +9747,7 @@
         <v>4033502.734415</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9848,7 +9780,7 @@
         <v>4033502.734415</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9881,7 +9813,7 @@
         <v>4205040.752431762</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10046,7 +9978,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10079,7 +10011,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10112,7 +10044,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10145,7 +10077,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10178,7 +10110,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10211,7 +10143,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10244,7 +10176,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10277,7 +10209,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10310,7 +10242,7 @@
         <v>3902529.115431762</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10343,7 +10275,7 @@
         <v>3902539.115431762</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10376,7 +10308,7 @@
         <v>3750661.752331762</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10409,7 +10341,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10442,7 +10374,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10475,7 +10407,7 @@
         <v>4087409.614131762</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10508,7 +10440,7 @@
         <v>4082021.720731762</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10541,7 +10473,7 @@
         <v>4070257.796331762</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10574,7 +10506,7 @@
         <v>4134147.060231762</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10607,7 +10539,7 @@
         <v>4105385.555831762</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10640,7 +10572,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10673,7 +10605,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10706,7 +10638,7 @@
         <v>4103897.652331762</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10739,7 +10671,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10772,7 +10704,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10805,7 +10737,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10838,7 +10770,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10871,7 +10803,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10904,7 +10836,7 @@
         <v>4016985.367731763</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10937,7 +10869,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10970,7 +10902,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11003,7 +10935,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11036,7 +10968,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11069,7 +11001,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11102,7 +11034,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11135,7 +11067,7 @@
         <v>4203043.457931763</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11168,7 +11100,7 @@
         <v>4315651.727831762</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11234,7 +11166,7 @@
         <v>4305821.411031762</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11267,7 +11199,7 @@
         <v>4331912.063931762</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11333,7 +11265,7 @@
         <v>4322059.122831762</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11366,7 +11298,7 @@
         <v>4322059.122831762</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11399,7 +11331,7 @@
         <v>4322059.122831762</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11432,7 +11364,7 @@
         <v>4423402.906731762</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11465,7 +11397,7 @@
         <v>4423402.906731762</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11498,7 +11430,7 @@
         <v>4407679.626931762</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11531,7 +11463,7 @@
         <v>4409864.202431763</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11564,7 +11496,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11597,7 +11529,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11630,7 +11562,7 @@
         <v>4682291.925631763</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11663,7 +11595,7 @@
         <v>4506965.219031763</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11696,7 +11628,7 @@
         <v>4310867.638731764</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11729,7 +11661,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11762,7 +11694,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11795,7 +11727,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11828,7 +11760,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11861,7 +11793,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11894,7 +11826,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11927,7 +11859,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11960,7 +11892,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11993,7 +11925,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12026,7 +11958,7 @@
         <v>4544480.605031764</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12059,7 +11991,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12092,7 +12024,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12125,7 +12057,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12158,7 +12090,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12191,7 +12123,7 @@
         <v>4481027.360131764</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12224,7 +12156,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12257,7 +12189,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12290,7 +12222,7 @@
         <v>4585837.766331764</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12323,7 +12255,7 @@
         <v>4565837.766331764</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12356,7 +12288,7 @@
         <v>4587433.262031764</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12389,7 +12321,7 @@
         <v>4576600.122231764</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12422,7 +12354,7 @@
         <v>4608221.722485252</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12455,7 +12387,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12488,7 +12420,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12521,7 +12453,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12554,7 +12486,7 @@
         <v>4435983.334085252</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12587,7 +12519,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12620,7 +12552,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12653,7 +12585,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12686,7 +12618,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12719,7 +12651,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12752,7 +12684,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12851,7 +12783,7 @@
         <v>4446349.177285252</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12884,7 +12816,7 @@
         <v>4582630.605485252</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12950,7 +12882,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12983,7 +12915,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13016,7 +12948,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13082,7 +13014,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13115,7 +13047,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13148,7 +13080,7 @@
         <v>4685881.646553067</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13181,7 +13113,7 @@
         <v>4771248.854153068</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13313,7 +13245,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13346,7 +13278,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13412,7 +13344,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13445,7 +13377,7 @@
         <v>4928701.174053067</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13478,7 +13410,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13511,7 +13443,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13544,7 +13476,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13577,7 +13509,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13610,7 +13542,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13643,7 +13575,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13676,7 +13608,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13709,7 +13641,7 @@
         <v>4887529.822053066</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13742,7 +13674,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13775,7 +13707,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13808,7 +13740,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13841,7 +13773,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13874,7 +13806,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13907,7 +13839,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13940,7 +13872,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13973,7 +13905,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14006,7 +13938,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14039,7 +13971,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14072,7 +14004,7 @@
         <v>4888468.635653067</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14105,7 +14037,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14336,7 +14268,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14501,7 +14433,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14534,7 +14466,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14600,7 +14532,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14633,7 +14565,7 @@
         <v>4734688.324753067</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14666,7 +14598,7 @@
         <v>4734731.324753067</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14699,7 +14631,7 @@
         <v>4411664.534036788</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14732,7 +14664,7 @@
         <v>4459312.448536788</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14765,7 +14697,7 @@
         <v>4459312.448536788</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14798,7 +14730,7 @@
         <v>4461039.801477965</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14897,7 +14829,7 @@
         <v>4392346.685577965</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14930,7 +14862,7 @@
         <v>4400698.993177965</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14963,7 +14895,7 @@
         <v>4423834.598477965</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15029,7 +14961,7 @@
         <v>4375100.185577965</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15062,7 +14994,7 @@
         <v>4383452.493177965</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15095,7 +15027,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15128,7 +15060,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15161,7 +15093,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15194,7 +15126,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15227,7 +15159,7 @@
         <v>4489732.116477965</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15260,7 +15192,7 @@
         <v>4505835.976077965</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15293,7 +15225,7 @@
         <v>4464762.421377965</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15326,7 +15258,7 @@
         <v>4607157.160377965</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15359,7 +15291,7 @@
         <v>4600757.160377965</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15392,7 +15324,7 @@
         <v>4600757.160377965</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15425,7 +15357,7 @@
         <v>4600757.160377965</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15458,7 +15390,7 @@
         <v>4750956.033677965</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15491,7 +15423,7 @@
         <v>4705404.198677965</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15524,7 +15456,7 @@
         <v>4837685.086241871</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15557,7 +15489,7 @@
         <v>4786604.871141871</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15590,7 +15522,7 @@
         <v>4786604.871141871</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15623,7 +15555,7 @@
         <v>4794013.734141871</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15656,7 +15588,7 @@
         <v>4899654.429941871</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15689,7 +15621,7 @@
         <v>4883590.830041871</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15722,7 +15654,7 @@
         <v>4883704.653541871</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15821,7 +15753,7 @@
         <v>4849695.230441871</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15953,7 +15885,7 @@
         <v>4782560.170541871</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16019,7 +15951,7 @@
         <v>4782560.170541871</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16085,7 +16017,7 @@
         <v>4743262.033141871</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16151,7 +16083,7 @@
         <v>4743262.033141871</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16184,7 +16116,7 @@
         <v>4743262.033141871</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16217,7 +16149,7 @@
         <v>4511653.064141871</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16250,7 +16182,7 @@
         <v>4514482.660341871</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16283,7 +16215,7 @@
         <v>4514482.660341871</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16415,7 +16347,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16448,7 +16380,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16481,7 +16413,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16514,7 +16446,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16547,7 +16479,7 @@
         <v>4515296.235441871</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16580,7 +16512,7 @@
         <v>4545694.946041871</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16613,7 +16545,7 @@
         <v>4545694.946041871</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16679,7 +16611,7 @@
         <v>4651205.090241871</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16712,7 +16644,7 @@
         <v>4637715.860441871</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16745,7 +16677,7 @@
         <v>4637725.860441871</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16778,7 +16710,7 @@
         <v>4689921.801541871</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16811,7 +16743,7 @@
         <v>4584765.742741872</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17009,7 +16941,7 @@
         <v>4574079.863141872</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17042,7 +16974,7 @@
         <v>4574079.863141872</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17075,7 +17007,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17108,7 +17040,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17141,7 +17073,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17174,7 +17106,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17207,7 +17139,7 @@
         <v>4502695.283141872</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17240,7 +17172,7 @@
         <v>4502705.283141872</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17273,7 +17205,7 @@
         <v>4498707.867541872</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17306,7 +17238,7 @@
         <v>4496878.932241872</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17339,7 +17271,7 @@
         <v>4496888.932241872</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17372,7 +17304,7 @@
         <v>4435606.677441872</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17405,7 +17337,7 @@
         <v>4435617.677441872</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17438,7 +17370,7 @@
         <v>4435617.677441872</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17471,7 +17403,7 @@
         <v>4527037.580541871</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17504,7 +17436,7 @@
         <v>4525872.349141872</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17537,7 +17469,7 @@
         <v>4525872.349141872</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17570,7 +17502,7 @@
         <v>4525882.349141872</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17603,7 +17535,7 @@
         <v>4525882.349141872</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17636,7 +17568,7 @@
         <v>4525882.349141872</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17669,7 +17601,7 @@
         <v>4506053.896941871</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17999,7 +17931,7 @@
         <v>4615280.557341872</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18032,7 +17964,7 @@
         <v>4615280.557341872</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18065,7 +17997,7 @@
         <v>4459373.118441871</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18098,7 +18030,7 @@
         <v>4459373.118441871</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18131,7 +18063,7 @@
         <v>4459373.118441871</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18164,7 +18096,7 @@
         <v>4463469.475841871</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18197,7 +18129,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18230,7 +18162,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18263,7 +18195,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18296,7 +18228,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18329,7 +18261,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18362,7 +18294,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18395,7 +18327,7 @@
         <v>4469535.771741872</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18428,7 +18360,7 @@
         <v>4497337.969241871</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18461,7 +18393,7 @@
         <v>4428139.032341871</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18494,7 +18426,7 @@
         <v>4428139.032341871</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18527,7 +18459,7 @@
         <v>4504283.998541871</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18725,7 +18657,7 @@
         <v>4244396.736241871</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18758,7 +18690,7 @@
         <v>4269529.37794187</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18791,7 +18723,7 @@
         <v>4269529.37794187</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18824,7 +18756,7 @@
         <v>4293838.16574187</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18857,7 +18789,7 @@
         <v>4122745.84404187</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18890,7 +18822,7 @@
         <v>4122745.84404187</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18923,7 +18855,7 @@
         <v>4127002.52154187</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18956,7 +18888,7 @@
         <v>4127002.52154187</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19055,7 +18987,7 @@
         <v>4127265.95524187</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19088,7 +19020,7 @@
         <v>4126163.98644187</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19121,7 +19053,7 @@
         <v>4158503.08274187</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19154,7 +19086,7 @@
         <v>4158503.08274187</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19187,7 +19119,7 @@
         <v>4158503.08274187</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19220,7 +19152,7 @@
         <v>4210263.20484187</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19253,7 +19185,7 @@
         <v>4210263.20484187</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19286,7 +19218,7 @@
         <v>4207524.49084187</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19319,7 +19251,7 @@
         <v>4225693.91814187</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19352,7 +19284,7 @@
         <v>4225693.91814187</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19385,7 +19317,7 @@
         <v>4225693.91814187</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19418,7 +19350,7 @@
         <v>4205114.07494187</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19451,7 +19383,7 @@
         <v>4213613.83344187</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19484,7 +19416,7 @@
         <v>4213613.83344187</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19550,7 +19482,7 @@
         <v>4265440.07534187</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19583,7 +19515,7 @@
         <v>4222404.38794187</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19616,7 +19548,7 @@
         <v>4204281.713841869</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19649,7 +19581,7 @@
         <v>4204281.713841869</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19682,7 +19614,7 @@
         <v>4200669.18304187</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19715,7 +19647,7 @@
         <v>4200679.18304187</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19748,7 +19680,7 @@
         <v>4010655.059241869</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19781,7 +19713,7 @@
         <v>4085732.157441869</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19814,7 +19746,7 @@
         <v>4085732.157441869</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19847,7 +19779,7 @@
         <v>4083925.899041869</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19880,7 +19812,7 @@
         <v>4083925.899041869</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19913,7 +19845,7 @@
         <v>4118153.322641869</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19946,7 +19878,7 @@
         <v>4118153.322641869</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19979,7 +19911,7 @@
         <v>4036575.082341869</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20012,7 +19944,7 @@
         <v>3798864.540441869</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20045,7 +19977,7 @@
         <v>3798864.540441869</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20078,7 +20010,7 @@
         <v>3798864.540441869</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20111,7 +20043,7 @@
         <v>3633120.327641869</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20144,7 +20076,7 @@
         <v>3633120.327641869</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20177,7 +20109,7 @@
         <v>3633120.327641869</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20210,7 +20142,7 @@
         <v>3633081.209041869</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20243,7 +20175,7 @@
         <v>3633081.209041869</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20276,7 +20208,7 @@
         <v>3655307.011441869</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20309,7 +20241,7 @@
         <v>3701707.011441869</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20342,7 +20274,7 @@
         <v>3661936.162741869</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20375,7 +20307,7 @@
         <v>3661936.162741869</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20408,7 +20340,7 @@
         <v>3723341.042441869</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20441,7 +20373,7 @@
         <v>3672439.578241869</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20474,7 +20406,7 @@
         <v>3352533.582641869</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20507,7 +20439,7 @@
         <v>2033135.174641869</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -23576,7 +23508,7 @@
         <v>2810279.327589668</v>
       </c>
       <c r="H685" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26095,6 +26027,6 @@
       <c r="M761" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest LBA.xlsx
+++ b/BackTest/2019-10-24 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,7 +781,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2243916.291748918</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2287866.353048918</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2230534.353048918</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2316516.701048918</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2830657.858048919</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -3586,14 +3586,10 @@
         <v>2110241.20324892</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
@@ -3631,11 +3627,7 @@
       <c r="J98" t="n">
         <v>14.9</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3664,11 +3656,9 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>14.9</v>
       </c>
@@ -3705,15 +3695,17 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>14.9</v>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3742,19 +3734,11 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3783,19 +3767,11 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J102" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3824,14 +3800,10 @@
         <v>2063374.08684892</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
@@ -3866,9 +3838,7 @@
       <c r="I104" t="n">
         <v>14.8</v>
       </c>
-      <c r="J104" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3907,9 +3877,7 @@
       <c r="I105" t="n">
         <v>14.7</v>
       </c>
-      <c r="J105" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,9 +3916,7 @@
       <c r="I106" t="n">
         <v>14.8</v>
       </c>
-      <c r="J106" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,9 +3955,7 @@
       <c r="I107" t="n">
         <v>14.7</v>
       </c>
-      <c r="J107" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,9 +3994,7 @@
       <c r="I108" t="n">
         <v>14.7</v>
       </c>
-      <c r="J108" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,9 +4033,7 @@
       <c r="I109" t="n">
         <v>14.9</v>
       </c>
-      <c r="J109" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4112,9 +4072,7 @@
       <c r="I110" t="n">
         <v>14.9</v>
       </c>
-      <c r="J110" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,9 +4111,7 @@
       <c r="I111" t="n">
         <v>14.8</v>
       </c>
-      <c r="J111" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,9 +4150,7 @@
       <c r="I112" t="n">
         <v>14.8</v>
       </c>
-      <c r="J112" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,9 +4189,7 @@
       <c r="I113" t="n">
         <v>14.9</v>
       </c>
-      <c r="J113" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4271,14 +4223,10 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,14 +4260,10 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4353,14 +4297,10 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,14 +4334,10 @@
         <v>2816141.14154892</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4435,14 +4371,10 @@
         <v>2757180.89334892</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J118" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4479,9 +4411,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4518,9 +4448,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,9 +4485,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4596,9 +4522,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,14 +4556,10 @@
         <v>3072099.950623604</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J123" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,14 +4593,10 @@
         <v>3094337.28124892</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J124" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4714,14 +4630,10 @@
         <v>3094309.68914892</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J125" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,14 +4667,10 @@
         <v>3130394.87234892</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J126" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4796,14 +4704,10 @@
         <v>3188841.68184892</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="J127" t="n">
-        <v>14.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,9 +4744,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,9 +4781,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4918,9 +4818,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4957,9 +4855,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,20 +4889,16 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -5032,17 +4924,11 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5071,17 +4957,11 @@
         <v>2993651.06104892</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5110,17 +4990,11 @@
         <v>3046307.26924892</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5149,17 +5023,11 @@
         <v>3284956.739048921</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5188,17 +5056,11 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5227,17 +5089,11 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5266,17 +5122,11 @@
         <v>3225206.75024892</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5305,17 +5155,11 @@
         <v>3225216.75024892</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5344,17 +5188,11 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5383,17 +5221,11 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5422,17 +5254,11 @@
         <v>3348768.04354892</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5461,17 +5287,11 @@
         <v>3218744.32534892</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5500,17 +5320,11 @@
         <v>3230284.72884892</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5539,17 +5353,11 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5578,17 +5386,11 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5617,17 +5419,11 @@
         <v>3295698.028512335</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5656,17 +5452,11 @@
         <v>3365944.872312335</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5695,17 +5485,11 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5734,17 +5518,11 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5773,17 +5551,11 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5812,17 +5584,11 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5851,17 +5617,11 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5890,17 +5650,11 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5929,17 +5683,11 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5968,17 +5716,11 @@
         <v>3302640.075112335</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6007,17 +5749,11 @@
         <v>3302652.075112335</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6046,17 +5782,11 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6085,17 +5815,11 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6124,17 +5848,11 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6163,17 +5881,11 @@
         <v>3570323.704312335</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6202,17 +5914,11 @@
         <v>4349421.654112334</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +5950,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6283,14 +5983,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6322,14 +6016,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6361,14 +6049,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6400,14 +6082,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +6115,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6478,14 +6148,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6517,14 +6181,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6556,14 +6214,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6595,14 +6247,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6634,14 +6280,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6670,23 +6310,15 @@
         <v>3597875.09842662</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
-        <v>1.109093959731544</v>
-      </c>
-      <c r="M175" t="n">
-        <v>1.155405405405405</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6711,7 +6343,7 @@
         <v>3597875.09842662</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6909,7 +6541,7 @@
         <v>3024517.478326619</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6942,7 +6574,7 @@
         <v>3133562.270526619</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6975,7 +6607,7 @@
         <v>3133562.270526619</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7008,7 +6640,7 @@
         <v>3170792.160526619</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7041,7 +6673,7 @@
         <v>3165792.160526619</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7074,7 +6706,7 @@
         <v>3013200.361326619</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7107,7 +6739,7 @@
         <v>3013200.361326619</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7140,7 +6772,7 @@
         <v>3013200.361326619</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7173,7 +6805,7 @@
         <v>3011534.995626619</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7206,7 +6838,7 @@
         <v>3435420.067726619</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7239,7 +6871,7 @@
         <v>3295520.067726619</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7272,7 +6904,7 @@
         <v>3310140.067726619</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7305,7 +6937,7 @@
         <v>3310140.067726619</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7338,7 +6970,7 @@
         <v>3308429.179326619</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7371,7 +7003,7 @@
         <v>3408429.179326619</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7404,7 +7036,7 @@
         <v>3408429.179326619</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7437,7 +7069,7 @@
         <v>3408429.179326619</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7503,7 +7135,7 @@
         <v>3150485.244126619</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7536,7 +7168,7 @@
         <v>3150485.244126619</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7569,7 +7201,7 @@
         <v>3100310.661026619</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7602,7 +7234,7 @@
         <v>2932781.52932662</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7635,7 +7267,7 @@
         <v>2426203.45002662</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7668,7 +7300,7 @@
         <v>2426203.45002662</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7701,7 +7333,7 @@
         <v>2492740.59172662</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7734,7 +7366,7 @@
         <v>2482263.73642662</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7767,7 +7399,7 @@
         <v>2482263.73642662</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -9978,7 +9610,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10011,7 +9643,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10044,7 +9676,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10077,7 +9709,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10110,7 +9742,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10143,7 +9775,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10176,7 +9808,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10209,7 +9841,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10242,7 +9874,7 @@
         <v>3902529.115431762</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10275,7 +9907,7 @@
         <v>3902539.115431762</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10308,7 +9940,7 @@
         <v>3750661.752331762</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10341,7 +9973,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10374,7 +10006,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10407,7 +10039,7 @@
         <v>4087409.614131762</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10440,7 +10072,7 @@
         <v>4082021.720731762</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10473,7 +10105,7 @@
         <v>4070257.796331762</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10506,7 +10138,7 @@
         <v>4134147.060231762</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10539,7 +10171,7 @@
         <v>4105385.555831762</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10572,7 +10204,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10605,7 +10237,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10638,7 +10270,7 @@
         <v>4103897.652331762</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10671,7 +10303,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10704,7 +10336,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10737,7 +10369,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10770,7 +10402,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10803,7 +10435,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10836,7 +10468,7 @@
         <v>4016985.367731763</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10869,7 +10501,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10902,7 +10534,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10935,7 +10567,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10968,7 +10600,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11001,7 +10633,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11034,7 +10666,7 @@
         <v>4170843.457931763</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11067,7 +10699,7 @@
         <v>4203043.457931763</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11100,7 +10732,7 @@
         <v>4315651.727831762</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11166,7 +10798,7 @@
         <v>4305821.411031762</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11199,7 +10831,7 @@
         <v>4331912.063931762</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11265,7 +10897,7 @@
         <v>4322059.122831762</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11298,7 +10930,7 @@
         <v>4322059.122831762</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11331,7 +10963,7 @@
         <v>4322059.122831762</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11364,7 +10996,7 @@
         <v>4423402.906731762</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11397,7 +11029,7 @@
         <v>4423402.906731762</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11430,7 +11062,7 @@
         <v>4407679.626931762</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11463,7 +11095,7 @@
         <v>4409864.202431763</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11496,7 +11128,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11529,7 +11161,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11562,7 +11194,7 @@
         <v>4682291.925631763</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11595,7 +11227,7 @@
         <v>4506965.219031763</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11628,7 +11260,7 @@
         <v>4310867.638731764</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11661,7 +11293,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11694,7 +11326,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11727,7 +11359,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11760,7 +11392,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11793,7 +11425,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11826,7 +11458,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11859,7 +11491,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11892,7 +11524,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11925,7 +11557,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11958,7 +11590,7 @@
         <v>4544480.605031764</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11991,7 +11623,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12024,7 +11656,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12057,7 +11689,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12090,7 +11722,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12123,7 +11755,7 @@
         <v>4481027.360131764</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12156,7 +11788,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12189,7 +11821,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12222,7 +11854,7 @@
         <v>4585837.766331764</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12255,7 +11887,7 @@
         <v>4565837.766331764</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12288,7 +11920,7 @@
         <v>4587433.262031764</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12321,7 +11953,7 @@
         <v>4576600.122231764</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12354,7 +11986,7 @@
         <v>4608221.722485252</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12387,7 +12019,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12420,7 +12052,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12453,7 +12085,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12486,7 +12118,7 @@
         <v>4435983.334085252</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12519,7 +12151,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12552,7 +12184,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12585,7 +12217,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12618,7 +12250,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12651,7 +12283,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12684,7 +12316,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12783,7 +12415,7 @@
         <v>4446349.177285252</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12816,7 +12448,7 @@
         <v>4582630.605485252</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12882,7 +12514,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12915,7 +12547,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12948,7 +12580,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13245,7 +12877,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13278,7 +12910,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13344,7 +12976,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13377,7 +13009,7 @@
         <v>4928701.174053067</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13410,7 +13042,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13443,7 +13075,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13476,7 +13108,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13509,7 +13141,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13542,7 +13174,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13575,7 +13207,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13608,7 +13240,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13641,7 +13273,7 @@
         <v>4887529.822053066</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13674,7 +13306,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13707,7 +13339,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13740,7 +13372,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13773,7 +13405,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13806,7 +13438,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13839,7 +13471,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13872,7 +13504,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13905,7 +13537,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13938,7 +13570,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13971,7 +13603,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14004,7 +13636,7 @@
         <v>4888468.635653067</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14037,7 +13669,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14268,7 +13900,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14532,7 +14164,7 @@
         <v>4770055.532353068</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14565,7 +14197,7 @@
         <v>4734688.324753067</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14598,7 +14230,7 @@
         <v>4734731.324753067</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14631,7 +14263,7 @@
         <v>4411664.534036788</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14664,7 +14296,7 @@
         <v>4459312.448536788</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14697,7 +14329,7 @@
         <v>4459312.448536788</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14730,7 +14362,7 @@
         <v>4461039.801477965</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14829,7 +14461,7 @@
         <v>4392346.685577965</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14862,7 +14494,7 @@
         <v>4400698.993177965</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14895,7 +14527,7 @@
         <v>4423834.598477965</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14961,7 +14593,7 @@
         <v>4375100.185577965</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14994,7 +14626,7 @@
         <v>4383452.493177965</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15027,7 +14659,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15060,7 +14692,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15093,7 +14725,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15126,7 +14758,7 @@
         <v>4490624.753477965</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15159,7 +14791,7 @@
         <v>4489732.116477965</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15192,7 +14824,7 @@
         <v>4505835.976077965</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15258,7 +14890,7 @@
         <v>4607157.160377965</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15291,7 +14923,7 @@
         <v>4600757.160377965</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15324,7 +14956,7 @@
         <v>4600757.160377965</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15357,7 +14989,7 @@
         <v>4600757.160377965</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15390,7 +15022,7 @@
         <v>4750956.033677965</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15423,7 +15055,7 @@
         <v>4705404.198677965</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15456,7 +15088,7 @@
         <v>4837685.086241871</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15489,7 +15121,7 @@
         <v>4786604.871141871</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15522,7 +15154,7 @@
         <v>4786604.871141871</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15555,7 +15187,7 @@
         <v>4794013.734141871</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15588,7 +15220,7 @@
         <v>4899654.429941871</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15621,7 +15253,7 @@
         <v>4883590.830041871</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15654,7 +15286,7 @@
         <v>4883704.653541871</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15753,7 +15385,7 @@
         <v>4849695.230441871</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15885,7 +15517,7 @@
         <v>4782560.170541871</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15951,7 +15583,7 @@
         <v>4782560.170541871</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16017,7 +15649,7 @@
         <v>4743262.033141871</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16083,7 +15715,7 @@
         <v>4743262.033141871</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16116,7 +15748,7 @@
         <v>4743262.033141871</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16149,7 +15781,7 @@
         <v>4511653.064141871</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16182,7 +15814,7 @@
         <v>4514482.660341871</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16215,7 +15847,7 @@
         <v>4514482.660341871</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16347,7 +15979,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16380,7 +16012,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16413,7 +16045,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16446,7 +16078,7 @@
         <v>4508289.489741871</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16479,7 +16111,7 @@
         <v>4515296.235441871</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16512,7 +16144,7 @@
         <v>4545694.946041871</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16545,7 +16177,7 @@
         <v>4545694.946041871</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16644,7 +16276,7 @@
         <v>4637715.860441871</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16941,7 +16573,7 @@
         <v>4574079.863141872</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16974,7 +16606,7 @@
         <v>4574079.863141872</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17007,7 +16639,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17040,7 +16672,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17073,7 +16705,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17106,7 +16738,7 @@
         <v>4504404.695341872</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17139,7 +16771,7 @@
         <v>4502695.283141872</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17172,7 +16804,7 @@
         <v>4502705.283141872</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17205,7 +16837,7 @@
         <v>4498707.867541872</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17238,7 +16870,7 @@
         <v>4496878.932241872</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17271,7 +16903,7 @@
         <v>4496888.932241872</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17304,7 +16936,7 @@
         <v>4435606.677441872</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17337,7 +16969,7 @@
         <v>4435617.677441872</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17370,7 +17002,7 @@
         <v>4435617.677441872</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17403,7 +17035,7 @@
         <v>4527037.580541871</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17436,7 +17068,7 @@
         <v>4525872.349141872</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17469,7 +17101,7 @@
         <v>4525872.349141872</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17502,7 +17134,7 @@
         <v>4525882.349141872</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17535,7 +17167,7 @@
         <v>4525882.349141872</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17568,7 +17200,7 @@
         <v>4525882.349141872</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17601,7 +17233,7 @@
         <v>4506053.896941871</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17931,7 +17563,7 @@
         <v>4615280.557341872</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17964,7 +17596,7 @@
         <v>4615280.557341872</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17997,7 +17629,7 @@
         <v>4459373.118441871</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18030,7 +17662,7 @@
         <v>4459373.118441871</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18063,7 +17695,7 @@
         <v>4459373.118441871</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18096,7 +17728,7 @@
         <v>4463469.475841871</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18129,7 +17761,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18162,7 +17794,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18195,7 +17827,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18228,7 +17860,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18261,7 +17893,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18294,7 +17926,7 @@
         <v>4460823.524941872</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18327,7 +17959,7 @@
         <v>4469535.771741872</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18360,7 +17992,7 @@
         <v>4497337.969241871</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18393,7 +18025,7 @@
         <v>4428139.032341871</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18426,7 +18058,7 @@
         <v>4428139.032341871</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18459,7 +18091,7 @@
         <v>4504283.998541871</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18657,7 +18289,7 @@
         <v>4244396.736241871</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18690,7 +18322,7 @@
         <v>4269529.37794187</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18723,7 +18355,7 @@
         <v>4269529.37794187</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18756,7 +18388,7 @@
         <v>4293838.16574187</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18789,7 +18421,7 @@
         <v>4122745.84404187</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18822,7 +18454,7 @@
         <v>4122745.84404187</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18855,7 +18487,7 @@
         <v>4127002.52154187</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18888,7 +18520,7 @@
         <v>4127002.52154187</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18987,7 +18619,7 @@
         <v>4127265.95524187</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19020,7 +18652,7 @@
         <v>4126163.98644187</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19053,7 +18685,7 @@
         <v>4158503.08274187</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19086,7 +18718,7 @@
         <v>4158503.08274187</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19119,7 +18751,7 @@
         <v>4158503.08274187</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19152,7 +18784,7 @@
         <v>4210263.20484187</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19185,7 +18817,7 @@
         <v>4210263.20484187</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19218,7 +18850,7 @@
         <v>4207524.49084187</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19251,7 +18883,7 @@
         <v>4225693.91814187</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19284,7 +18916,7 @@
         <v>4225693.91814187</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19317,7 +18949,7 @@
         <v>4225693.91814187</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19350,7 +18982,7 @@
         <v>4205114.07494187</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19383,7 +19015,7 @@
         <v>4213613.83344187</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19416,7 +19048,7 @@
         <v>4213613.83344187</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19482,7 +19114,7 @@
         <v>4265440.07534187</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19515,7 +19147,7 @@
         <v>4222404.38794187</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19548,7 +19180,7 @@
         <v>4204281.713841869</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19581,7 +19213,7 @@
         <v>4204281.713841869</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19614,7 +19246,7 @@
         <v>4200669.18304187</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19647,7 +19279,7 @@
         <v>4200679.18304187</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19680,7 +19312,7 @@
         <v>4010655.059241869</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19713,7 +19345,7 @@
         <v>4085732.157441869</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19746,7 +19378,7 @@
         <v>4085732.157441869</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19779,7 +19411,7 @@
         <v>4083925.899041869</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19812,7 +19444,7 @@
         <v>4083925.899041869</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19845,7 +19477,7 @@
         <v>4118153.322641869</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19878,7 +19510,7 @@
         <v>4118153.322641869</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19911,7 +19543,7 @@
         <v>4036575.082341869</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19944,7 +19576,7 @@
         <v>3798864.540441869</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19977,7 +19609,7 @@
         <v>3798864.540441869</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20010,7 +19642,7 @@
         <v>3798864.540441869</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20043,7 +19675,7 @@
         <v>3633120.327641869</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20076,7 +19708,7 @@
         <v>3633120.327641869</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20109,7 +19741,7 @@
         <v>3633120.327641869</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20142,7 +19774,7 @@
         <v>3633081.209041869</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20175,7 +19807,7 @@
         <v>3633081.209041869</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20208,7 +19840,7 @@
         <v>3655307.011441869</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20241,7 +19873,7 @@
         <v>3701707.011441869</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20274,7 +19906,7 @@
         <v>3661936.162741869</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20307,7 +19939,7 @@
         <v>3661936.162741869</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20340,7 +19972,7 @@
         <v>3723341.042441869</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20373,7 +20005,7 @@
         <v>3672439.578241869</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20406,7 +20038,7 @@
         <v>3352533.582641869</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20439,7 +20071,7 @@
         <v>2033135.174641869</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -26027,6 +25659,6 @@
       <c r="M761" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest LBA.xlsx
+++ b/BackTest/2019-10-24 BackTest LBA.xlsx
@@ -781,7 +781,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2232846.291748918</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2243916.291748918</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2243754.291748918</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2287866.353048918</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2230534.353048918</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2316516.701048918</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2643526.419048918</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2830657.858048919</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -3289,11 +3289,17 @@
         <v>2108218.74574892</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3332,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3365,17 @@
         <v>2111979.47684892</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>15</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3408,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3445,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3482,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3519,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3556,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3589,17 @@
         <v>2110241.20324892</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>15</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3628,17 @@
         <v>2110241.20324892</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3624,10 +3672,12 @@
       <c r="I98" t="n">
         <v>14.9</v>
       </c>
-      <c r="J98" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,15 +3706,15 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>14.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>15</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -3695,15 +3745,15 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
         <v>14.9</v>
       </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3734,11 +3784,17 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3767,11 +3823,17 @@
         <v>2107417.93764892</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +3862,17 @@
         <v>2063374.08684892</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>14.9</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3841,7 +3909,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L104" t="n">
@@ -4223,9 +4291,11 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4260,9 +4330,11 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4297,9 +4369,11 @@
         <v>2802287.84284892</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4334,9 +4408,11 @@
         <v>2816141.14154892</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4371,9 +4447,11 @@
         <v>2757180.89334892</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
@@ -4408,9 +4486,11 @@
         <v>2822158.72354892</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4445,9 +4525,11 @@
         <v>2947019.92864892</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -4482,9 +4564,11 @@
         <v>2947019.92864892</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4519,9 +4603,11 @@
         <v>2929623.55564892</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4556,9 +4642,11 @@
         <v>3072099.950623604</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4593,9 +4681,11 @@
         <v>3094337.28124892</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4630,9 +4720,11 @@
         <v>3094309.68914892</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4667,9 +4759,11 @@
         <v>3130394.87234892</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4704,9 +4798,11 @@
         <v>3188841.68184892</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4741,9 +4837,11 @@
         <v>3097926.73614892</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>16</v>
+      </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -4778,9 +4876,11 @@
         <v>3153982.07924892</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -4889,16 +4989,18 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
       <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
@@ -4924,11 +5026,15 @@
         <v>3024965.60524892</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4957,11 +5063,15 @@
         <v>2993651.06104892</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4990,11 +5100,15 @@
         <v>3046307.26924892</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5023,11 +5137,15 @@
         <v>3284956.739048921</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5056,11 +5174,15 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5089,11 +5211,15 @@
         <v>3234028.20104892</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +5248,15 @@
         <v>3225206.75024892</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5285,15 @@
         <v>3225216.75024892</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5188,11 +5322,15 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5221,11 +5359,15 @@
         <v>3351036.50024892</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5254,11 +5396,15 @@
         <v>3348768.04354892</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5287,11 +5433,15 @@
         <v>3218744.32534892</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +5470,15 @@
         <v>3230284.72884892</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5353,11 +5507,15 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5386,11 +5544,15 @@
         <v>3243719.86694892</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +5581,15 @@
         <v>3295698.028512335</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5452,11 +5618,15 @@
         <v>3365944.872312335</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5485,11 +5655,15 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5518,11 +5692,15 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +5729,15 @@
         <v>3363863.454712335</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5584,11 +5766,15 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5617,11 +5803,15 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5650,11 +5840,15 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5683,11 +5877,15 @@
         <v>3394205.765012335</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5716,11 +5914,15 @@
         <v>3302640.075112335</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +5951,15 @@
         <v>3302652.075112335</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +5988,15 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +6025,15 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +6062,15 @@
         <v>3318899.893212335</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +6099,15 @@
         <v>3570323.704312335</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +6136,15 @@
         <v>4349421.654112334</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5951,7 +6177,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5984,7 +6214,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6017,7 +6251,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6050,7 +6288,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6079,14 +6321,16 @@
         <v>4305130.91822662</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
@@ -6178,7 +6422,7 @@
         <v>4208702.88002662</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -9313,7 +9557,7 @@
         <v>3743542.903815</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9346,7 +9590,7 @@
         <v>4074659.263015</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9379,7 +9623,7 @@
         <v>4033502.734415</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9412,7 +9656,7 @@
         <v>4033502.734415</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9445,7 +9689,7 @@
         <v>4205040.752431762</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9478,7 +9722,7 @@
         <v>4262138.036831763</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9511,7 +9755,7 @@
         <v>4196131.593231763</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9544,7 +9788,7 @@
         <v>4096697.790531763</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9577,7 +9821,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9610,7 +9854,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9643,7 +9887,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9676,7 +9920,7 @@
         <v>4371587.384531762</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9709,7 +9953,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9742,7 +9986,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9775,7 +10019,7 @@
         <v>4324948.133931763</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9808,7 +10052,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9841,7 +10085,7 @@
         <v>4000789.316531762</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9874,7 +10118,7 @@
         <v>3902529.115431762</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9907,7 +10151,7 @@
         <v>3902539.115431762</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9940,7 +10184,7 @@
         <v>3750661.752331762</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9973,7 +10217,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10006,7 +10250,7 @@
         <v>3954383.933831762</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10039,7 +10283,7 @@
         <v>4087409.614131762</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10072,7 +10316,7 @@
         <v>4082021.720731762</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10105,7 +10349,7 @@
         <v>4070257.796331762</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10138,7 +10382,7 @@
         <v>4134147.060231762</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10171,7 +10415,7 @@
         <v>4105385.555831762</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10204,7 +10448,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10237,7 +10481,7 @@
         <v>4109045.855831762</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10270,7 +10514,7 @@
         <v>4103897.652331762</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10303,7 +10547,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10336,7 +10580,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10369,7 +10613,7 @@
         <v>4105597.652331762</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10402,7 +10646,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10435,7 +10679,7 @@
         <v>4062530.718331763</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10864,7 +11108,7 @@
         <v>4331912.063931762</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11029,7 +11273,7 @@
         <v>4423402.906731762</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11062,7 +11306,7 @@
         <v>4407679.626931762</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11095,7 +11339,7 @@
         <v>4409864.202431763</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11128,7 +11372,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11161,7 +11405,7 @@
         <v>4428482.899531763</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11194,7 +11438,7 @@
         <v>4682291.925631763</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11227,7 +11471,7 @@
         <v>4506965.219031763</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11260,7 +11504,7 @@
         <v>4310867.638731764</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11293,7 +11537,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11326,7 +11570,7 @@
         <v>4497823.367931764</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11359,7 +11603,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11392,7 +11636,7 @@
         <v>4539423.367931764</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11425,7 +11669,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11458,7 +11702,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11491,7 +11735,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11524,7 +11768,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11557,7 +11801,7 @@
         <v>4539292.542231764</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11590,7 +11834,7 @@
         <v>4544480.605031764</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11623,7 +11867,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11656,7 +11900,7 @@
         <v>4543481.605031764</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11689,7 +11933,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11722,7 +11966,7 @@
         <v>4502926.220631764</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11755,7 +11999,7 @@
         <v>4481027.360131764</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11788,7 +12032,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11821,7 +12065,7 @@
         <v>4491679.536431764</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11854,7 +12098,7 @@
         <v>4585837.766331764</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11887,7 +12131,7 @@
         <v>4565837.766331764</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11920,7 +12164,7 @@
         <v>4587433.262031764</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11953,7 +12197,7 @@
         <v>4576600.122231764</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11986,7 +12230,7 @@
         <v>4608221.722485252</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12019,7 +12263,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12052,7 +12296,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12085,7 +12329,7 @@
         <v>4607228.722485252</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12118,7 +12362,7 @@
         <v>4435983.334085252</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12151,7 +12395,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12184,7 +12428,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12217,7 +12461,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12250,7 +12494,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12283,7 +12527,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12316,7 +12560,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12349,7 +12593,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12382,7 +12626,7 @@
         <v>4444758.177285252</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12415,7 +12659,7 @@
         <v>4446349.177285252</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12448,7 +12692,7 @@
         <v>4582630.605485252</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12481,7 +12725,7 @@
         <v>4660117.526653068</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12514,7 +12758,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12547,7 +12791,7 @@
         <v>4780462.853053068</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12580,7 +12824,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12613,7 +12857,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12646,7 +12890,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12679,7 +12923,7 @@
         <v>4756768.646553067</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12712,7 +12956,7 @@
         <v>4685881.646553067</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12745,7 +12989,7 @@
         <v>4771248.854153068</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12778,7 +13022,7 @@
         <v>4771248.854153068</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12811,7 +13055,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12844,7 +13088,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12877,7 +13121,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12910,7 +13154,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12943,7 +13187,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12976,7 +13220,7 @@
         <v>4930951.174053067</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13009,7 +13253,7 @@
         <v>4928701.174053067</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13042,7 +13286,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13075,7 +13319,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13108,7 +13352,7 @@
         <v>4938164.550853067</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13141,7 +13385,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13174,7 +13418,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13207,7 +13451,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13240,7 +13484,7 @@
         <v>4937529.915653067</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13273,7 +13517,7 @@
         <v>4887529.822053066</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13306,7 +13550,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13339,7 +13583,7 @@
         <v>4891639.532953067</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13372,7 +13616,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13405,7 +13649,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13438,7 +13682,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13471,7 +13715,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13504,7 +13748,7 @@
         <v>4890085.713053067</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13537,7 +13781,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13570,7 +13814,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13603,7 +13847,7 @@
         <v>4876400.641653067</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13636,7 +13880,7 @@
         <v>4888468.635653067</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13669,7 +13913,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13702,7 +13946,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13735,7 +13979,7 @@
         <v>4887478.635653067</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13768,7 +14012,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13801,7 +14045,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13834,7 +14078,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13867,7 +14111,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13900,7 +14144,7 @@
         <v>4885580.633253068</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -21886,11 +22130,17 @@
         <v>2388685.286689667</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>16</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21923,7 +22173,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21952,11 +22206,17 @@
         <v>2383899.899889668</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>16</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21985,11 +22245,17 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>16</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22018,11 +22284,17 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22051,11 +22323,17 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22084,11 +22362,17 @@
         <v>2329124.407489668</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22117,11 +22401,17 @@
         <v>2329813.407489668</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>15.9</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22150,11 +22440,17 @@
         <v>2329813.407489668</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>16</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22187,7 +22483,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22216,11 +22516,17 @@
         <v>2322479.499489668</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22249,11 +22555,17 @@
         <v>2322479.499489668</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22282,11 +22594,17 @@
         <v>2369879.499489668</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22319,7 +22637,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22352,7 +22674,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22385,7 +22711,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22418,7 +22748,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22451,7 +22785,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22484,7 +22822,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22517,7 +22859,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22550,7 +22896,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22583,7 +22933,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22616,7 +22970,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22649,7 +23007,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22682,7 +23044,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22715,7 +23081,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22748,7 +23118,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22781,7 +23155,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22814,7 +23192,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22847,7 +23229,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22880,7 +23266,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22913,7 +23303,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22946,7 +23340,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22979,7 +23377,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23012,7 +23414,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23045,7 +23451,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23078,7 +23488,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23111,7 +23525,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23144,7 +23562,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23177,7 +23599,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23210,7 +23636,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23243,7 +23673,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23276,7 +23710,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23309,7 +23747,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23342,7 +23784,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23375,7 +23821,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23408,7 +23858,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23441,7 +23895,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23474,7 +23932,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23507,7 +23969,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23540,7 +24006,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23573,7 +24043,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23606,7 +24080,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23639,7 +24117,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23672,7 +24154,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23705,7 +24191,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23738,7 +24228,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23771,7 +24265,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23804,7 +24302,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23837,7 +24339,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23870,7 +24376,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23903,7 +24413,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23936,7 +24450,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23969,7 +24487,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24002,7 +24524,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24035,7 +24561,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24068,7 +24598,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24101,7 +24635,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24134,7 +24672,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24167,7 +24709,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24200,7 +24746,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24233,7 +24783,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24266,7 +24820,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24299,7 +24857,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24332,7 +24894,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24365,7 +24931,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24398,7 +24968,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24431,7 +25005,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24464,7 +25042,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24497,7 +25079,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24530,7 +25116,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24563,7 +25153,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24596,7 +25190,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24629,7 +25227,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24662,7 +25264,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24695,7 +25301,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24728,7 +25338,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24761,7 +25375,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24794,7 +25412,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24827,7 +25449,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24860,7 +25486,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24893,7 +25523,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24926,7 +25560,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -24955,11 +25593,17 @@
         <v>2297288.187089668</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -24988,11 +25632,17 @@
         <v>2297288.187089668</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25025,7 +25675,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25054,11 +25708,17 @@
         <v>2356425.048589668</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25087,11 +25747,17 @@
         <v>2356425.048589668</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25124,7 +25790,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25153,11 +25823,17 @@
         <v>2250013.392589668</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25186,11 +25862,17 @@
         <v>2250013.392589668</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25219,11 +25901,17 @@
         <v>2261095.206389668</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25252,11 +25940,17 @@
         <v>2258804.720189668</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25285,11 +25979,17 @@
         <v>2195151.793389668</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25318,11 +26018,17 @@
         <v>2309317.495189668</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>15.6</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25351,11 +26057,17 @@
         <v>2309317.495189668</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25384,11 +26096,17 @@
         <v>2335066.870989668</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25417,11 +26135,17 @@
         <v>2335066.870989668</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25450,11 +26174,17 @@
         <v>2309219.735889668</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>15.8</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25483,11 +26213,17 @@
         <v>2309219.735889668</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25516,11 +26252,17 @@
         <v>2113941.996589668</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>15.7</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25549,11 +26291,17 @@
         <v>2113941.996589668</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25582,11 +26330,17 @@
         <v>2093904.466989668</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25615,11 +26369,17 @@
         <v>2093914.466989668</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>15.4</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25648,11 +26408,17 @@
         <v>1942435.319189668</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
